--- a/data_month/zb/价格指数/居民消费价格分类指数(上年同期=100)/食品类城市居民消费价格指数(上年同期=100).xlsx
+++ b/data_month/zb/价格指数/居民消费价格分类指数(上年同期=100)/食品类城市居民消费价格指数(上年同期=100).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -478,780 +478,780 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年10月</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>102.5</v>
-      </c>
+          <t>2000-01</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
-      <c r="D2" t="n">
-        <v>87.5</v>
-      </c>
-      <c r="E2" t="n">
-        <v>97.59999999999999</v>
-      </c>
-      <c r="F2" t="n">
-        <v>81.90000000000001</v>
-      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
         <v>96.90000000000001</v>
       </c>
       <c r="H2" t="inlineStr"/>
-      <c r="I2" t="n">
-        <v>104.5</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2000年11月</t>
+          <t>2000-02</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>102.4</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>88.09999999999999</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>97.59999999999999</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="F3" t="n">
-        <v>83</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="G3" t="n">
-        <v>97.09999999999999</v>
+        <v>97.7</v>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
-        <v>104.7</v>
+        <v>129.8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2000年12月</t>
+          <t>2000-03</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>102.3</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>88.8</v>
+        <v>86.7</v>
       </c>
       <c r="E4" t="n">
-        <v>97.8</v>
+        <v>94.2</v>
       </c>
       <c r="F4" t="n">
-        <v>84.2</v>
+        <v>75.2</v>
       </c>
       <c r="G4" t="n">
-        <v>97.40000000000001</v>
+        <v>97.3</v>
       </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
-        <v>104.7</v>
+        <v>126.9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2000年1月</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
+          <t>2000-04</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>101.4</v>
+      </c>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
+      <c r="D5" t="n">
+        <v>86.5</v>
+      </c>
+      <c r="E5" t="n">
+        <v>95.5</v>
+      </c>
+      <c r="F5" t="n">
+        <v>75.59999999999999</v>
+      </c>
       <c r="G5" t="n">
         <v>96.90000000000001</v>
       </c>
       <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+      <c r="I5" t="n">
+        <v>120</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2000年2月</t>
+          <t>2000-05</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>98.90000000000001</v>
+        <v>102.4</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>87.09999999999999</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>94.09999999999999</v>
+        <v>96.8</v>
       </c>
       <c r="F6" t="n">
-        <v>76.09999999999999</v>
+        <v>76.5</v>
       </c>
       <c r="G6" t="n">
-        <v>97.7</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>129.8</v>
+        <v>114.5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2000年3月</t>
+          <t>2000-06</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.90000000000001</v>
+        <v>102.9</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>86.7</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="E7" t="n">
-        <v>94.2</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="F7" t="n">
-        <v>75.2</v>
+        <v>77</v>
       </c>
       <c r="G7" t="n">
-        <v>97.3</v>
+        <v>97</v>
       </c>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>126.9</v>
+        <v>111.1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2000年4月</t>
+          <t>2000-07</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>101.4</v>
+        <v>103.1</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
         <v>86.5</v>
       </c>
       <c r="E8" t="n">
-        <v>95.5</v>
+        <v>98.5</v>
       </c>
       <c r="F8" t="n">
-        <v>75.59999999999999</v>
+        <v>77.8</v>
       </c>
       <c r="G8" t="n">
-        <v>96.90000000000001</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
-        <v>120</v>
+        <v>108.4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2000年5月</t>
+          <t>2000-08</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>102.4</v>
+        <v>103</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
-        <v>86.40000000000001</v>
+        <v>86.7</v>
       </c>
       <c r="E9" t="n">
-        <v>96.8</v>
+        <v>98.2</v>
       </c>
       <c r="F9" t="n">
-        <v>76.5</v>
+        <v>79.8</v>
       </c>
       <c r="G9" t="n">
-        <v>96.90000000000001</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
-        <v>114.5</v>
+        <v>107.3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2000年6月</t>
+          <t>2000-09</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>102.9</v>
+        <v>102.8</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
-        <v>86.40000000000001</v>
+        <v>87</v>
       </c>
       <c r="E10" t="n">
-        <v>97.90000000000001</v>
+        <v>97.8</v>
       </c>
       <c r="F10" t="n">
-        <v>77</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="G10" t="n">
         <v>97</v>
       </c>
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>111.1</v>
+        <v>105.9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2000年7月</t>
+          <t>2000-10</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>103.1</v>
+        <v>102.5</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="n">
-        <v>86.5</v>
+        <v>87.5</v>
       </c>
       <c r="E11" t="n">
-        <v>98.5</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="F11" t="n">
-        <v>77.8</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="G11" t="n">
-        <v>97.09999999999999</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>108.4</v>
+        <v>104.5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2000年8月</t>
+          <t>2000-11</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>103</v>
+        <v>102.4</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="n">
-        <v>86.7</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="E12" t="n">
-        <v>98.2</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="F12" t="n">
-        <v>79.8</v>
+        <v>83</v>
       </c>
       <c r="G12" t="n">
         <v>97.09999999999999</v>
       </c>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
-        <v>107.3</v>
+        <v>104.7</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2000年9月</t>
+          <t>2000-12</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>102.8</v>
+        <v>102.3</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="n">
-        <v>87</v>
+        <v>88.8</v>
       </c>
       <c r="E13" t="n">
         <v>97.8</v>
       </c>
       <c r="F13" t="n">
-        <v>80.90000000000001</v>
+        <v>84.2</v>
       </c>
       <c r="G13" t="n">
-        <v>97</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="n">
-        <v>105.9</v>
+        <v>104.7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2001年10月</t>
+          <t>2001-01</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>96.8</v>
+        <v>102.4636</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="n">
-        <v>98.8</v>
+        <v>96.41930000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>102</v>
+        <v>103.1852</v>
       </c>
       <c r="F14" t="n">
-        <v>106</v>
+        <v>98.0311</v>
       </c>
       <c r="G14" t="n">
-        <v>100.3</v>
+        <v>99.6681</v>
       </c>
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="n">
-        <v>102.9</v>
+        <v>95.3126</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>2001年11月</t>
+          <t>2001-02</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>96.8</v>
+        <v>99.7</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="n">
-        <v>99.09999999999999</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="E15" t="n">
-        <v>101.8</v>
+        <v>102.6</v>
       </c>
       <c r="F15" t="n">
-        <v>106.2</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="G15" t="n">
-        <v>100.2</v>
+        <v>98</v>
       </c>
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="n">
-        <v>102</v>
+        <v>86.7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>2001年12月</t>
+          <t>2001-03</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>96.90000000000001</v>
+        <v>99.2</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="n">
-        <v>99.2</v>
+        <v>97</v>
       </c>
       <c r="E16" t="n">
-        <v>101.7</v>
+        <v>102.5</v>
       </c>
       <c r="F16" t="n">
-        <v>106.3</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="G16" t="n">
-        <v>100.1</v>
+        <v>98.3</v>
       </c>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="n">
-        <v>101.4</v>
+        <v>88.2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>2001年1月</t>
+          <t>2001-04</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>102.4636</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="n">
-        <v>96.41930000000001</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="E17" t="n">
-        <v>103.1852</v>
+        <v>102.6</v>
       </c>
       <c r="F17" t="n">
-        <v>98.0311</v>
+        <v>100.6</v>
       </c>
       <c r="G17" t="n">
-        <v>99.6681</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="n">
-        <v>95.3126</v>
+        <v>92.8</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>2001年2月</t>
+          <t>2001-05</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>99.7</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="n">
-        <v>96.59999999999999</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="E18" t="n">
         <v>102.6</v>
       </c>
       <c r="F18" t="n">
-        <v>97.59999999999999</v>
+        <v>102.1</v>
       </c>
       <c r="G18" t="n">
-        <v>98</v>
+        <v>99.7</v>
       </c>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="n">
-        <v>86.7</v>
+        <v>96.40000000000001</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>2001年3月</t>
+          <t>2001-06</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>99.2</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="n">
-        <v>97</v>
+        <v>97.8</v>
       </c>
       <c r="E19" t="n">
-        <v>102.5</v>
+        <v>102.6</v>
       </c>
       <c r="F19" t="n">
-        <v>98.90000000000001</v>
+        <v>103.2</v>
       </c>
       <c r="G19" t="n">
-        <v>98.3</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="n">
-        <v>88.2</v>
+        <v>98.59999999999999</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>2001年4月</t>
+          <t>2001-07</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>98.59999999999999</v>
+        <v>97.2</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="n">
-        <v>97.40000000000001</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="E20" t="n">
-        <v>102.6</v>
+        <v>102.5</v>
       </c>
       <c r="F20" t="n">
-        <v>100.6</v>
+        <v>104.6</v>
       </c>
       <c r="G20" t="n">
-        <v>99.09999999999999</v>
+        <v>100.2</v>
       </c>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="n">
-        <v>92.8</v>
+        <v>100.9</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>2001年5月</t>
+          <t>2001-08</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>97.90000000000001</v>
+        <v>97</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="n">
-        <v>97.59999999999999</v>
+        <v>98.3</v>
       </c>
       <c r="E21" t="n">
-        <v>102.6</v>
+        <v>102.3</v>
       </c>
       <c r="F21" t="n">
-        <v>102.1</v>
+        <v>104.6</v>
       </c>
       <c r="G21" t="n">
-        <v>99.7</v>
+        <v>100.2</v>
       </c>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="n">
-        <v>96.40000000000001</v>
+        <v>101.9</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>2001年6月</t>
+          <t>2001-09</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.40000000000001</v>
+        <v>96.8</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="n">
-        <v>97.8</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="E22" t="n">
-        <v>102.6</v>
+        <v>102.1</v>
       </c>
       <c r="F22" t="n">
-        <v>103.2</v>
+        <v>105.3</v>
       </c>
       <c r="G22" t="n">
-        <v>99.90000000000001</v>
+        <v>100.2</v>
       </c>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="n">
-        <v>98.59999999999999</v>
+        <v>102.5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>2001年7月</t>
+          <t>2001-10</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>97.2</v>
+        <v>96.8</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="n">
-        <v>98.09999999999999</v>
+        <v>98.8</v>
       </c>
       <c r="E23" t="n">
-        <v>102.5</v>
+        <v>102</v>
       </c>
       <c r="F23" t="n">
-        <v>104.6</v>
+        <v>106</v>
       </c>
       <c r="G23" t="n">
-        <v>100.2</v>
+        <v>100.3</v>
       </c>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="n">
-        <v>100.9</v>
+        <v>102.9</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>2001年8月</t>
+          <t>2001-11</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>97</v>
+        <v>96.8</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="n">
-        <v>98.3</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="E24" t="n">
-        <v>102.3</v>
+        <v>101.8</v>
       </c>
       <c r="F24" t="n">
-        <v>104.6</v>
+        <v>106.2</v>
       </c>
       <c r="G24" t="n">
         <v>100.2</v>
       </c>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="n">
-        <v>101.9</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>2001年9月</t>
+          <t>2001-12</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>96.8</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="n">
-        <v>98.59999999999999</v>
+        <v>99.2</v>
       </c>
       <c r="E25" t="n">
-        <v>102.1</v>
+        <v>101.7</v>
       </c>
       <c r="F25" t="n">
-        <v>105.3</v>
+        <v>106.3</v>
       </c>
       <c r="G25" t="n">
-        <v>100.2</v>
+        <v>100.1</v>
       </c>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="n">
-        <v>102.5</v>
+        <v>101.4</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>2002年10月</t>
+          <t>2002-01</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>96.90000000000001</v>
+        <v>92.3</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="n">
-        <v>98.3</v>
+        <v>99.5</v>
       </c>
       <c r="E26" t="n">
-        <v>99.40000000000001</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="F26" t="n">
-        <v>103.6</v>
+        <v>108.1</v>
       </c>
       <c r="G26" t="n">
-        <v>99.3</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="n">
-        <v>96.09999999999999</v>
+        <v>94.7</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>2002年11月</t>
+          <t>2002-02</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>97</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="n">
-        <v>98.3</v>
+        <v>99.5</v>
       </c>
       <c r="E27" t="n">
-        <v>99.40000000000001</v>
+        <v>99.5</v>
       </c>
       <c r="F27" t="n">
-        <v>103</v>
+        <v>110.6</v>
       </c>
       <c r="G27" t="n">
         <v>99.40000000000001</v>
       </c>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="n">
-        <v>96.90000000000001</v>
+        <v>96.8</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>2002年12月</t>
+          <t>2002-03</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.09999999999999</v>
+        <v>96.3</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="n">
-        <v>98.3</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="E28" t="n">
-        <v>99.3</v>
+        <v>99.8</v>
       </c>
       <c r="F28" t="n">
-        <v>102.5</v>
+        <v>110.2</v>
       </c>
       <c r="G28" t="n">
-        <v>99.5</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="n">
-        <v>97.8</v>
+        <v>94.2</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>2002年1月</t>
+          <t>2002-04</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>92.3</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="n">
-        <v>99.5</v>
+        <v>99</v>
       </c>
       <c r="E29" t="n">
-        <v>98.09999999999999</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="F29" t="n">
-        <v>108.1</v>
+        <v>108.8</v>
       </c>
       <c r="G29" t="n">
-        <v>98.09999999999999</v>
+        <v>99</v>
       </c>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="n">
-        <v>94.7</v>
+        <v>91.5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>2002年2月</t>
+          <t>2002-05</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>95.90000000000001</v>
+        <v>96.2</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="n">
-        <v>99.5</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="E30" t="n">
-        <v>99.5</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="F30" t="n">
-        <v>110.6</v>
+        <v>108</v>
       </c>
       <c r="G30" t="n">
-        <v>99.40000000000001</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="n">
-        <v>96.8</v>
+        <v>91.59999999999999</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>2002年3月</t>
+          <t>2002-06</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -1259,6652 +1259,6652 @@
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="n">
+        <v>98.8</v>
+      </c>
+      <c r="E31" t="n">
+        <v>99.5</v>
+      </c>
+      <c r="F31" t="n">
+        <v>107.5</v>
+      </c>
+      <c r="G31" t="n">
         <v>99.09999999999999</v>
-      </c>
-      <c r="E31" t="n">
-        <v>99.8</v>
-      </c>
-      <c r="F31" t="n">
-        <v>110.2</v>
-      </c>
-      <c r="G31" t="n">
-        <v>99.40000000000001</v>
       </c>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="n">
-        <v>94.2</v>
+        <v>92.7</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>2002年4月</t>
+          <t>2002-07</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>96.09999999999999</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="n">
-        <v>99</v>
+        <v>98.7</v>
       </c>
       <c r="E32" t="n">
-        <v>99.59999999999999</v>
+        <v>99.5</v>
       </c>
       <c r="F32" t="n">
-        <v>108.8</v>
+        <v>106.3</v>
       </c>
       <c r="G32" t="n">
-        <v>99</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="n">
-        <v>91.5</v>
+        <v>93.2</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>2002年5月</t>
+          <t>2002-08</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>96.2</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="n">
-        <v>98.90000000000001</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="E33" t="n">
-        <v>99.59999999999999</v>
+        <v>99.5</v>
       </c>
       <c r="F33" t="n">
-        <v>108</v>
+        <v>105.5</v>
       </c>
       <c r="G33" t="n">
-        <v>98.90000000000001</v>
+        <v>99.2</v>
       </c>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="n">
-        <v>91.59999999999999</v>
+        <v>94.3</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>2002年6月</t>
+          <t>2002-09</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>96.3</v>
+        <v>96.8</v>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="n">
-        <v>98.8</v>
+        <v>98.5</v>
       </c>
       <c r="E34" t="n">
         <v>99.5</v>
       </c>
       <c r="F34" t="n">
-        <v>107.5</v>
+        <v>104.5</v>
       </c>
       <c r="G34" t="n">
-        <v>99.09999999999999</v>
-      </c>
-      <c r="H34" t="inlineStr"/>
+        <v>99.3</v>
+      </c>
+      <c r="H34" t="n">
+        <v>100.2</v>
+      </c>
       <c r="I34" t="n">
-        <v>92.7</v>
+        <v>95.2</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>2002年7月</t>
+          <t>2002-10</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>96.40000000000001</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="n">
-        <v>98.7</v>
+        <v>98.3</v>
       </c>
       <c r="E35" t="n">
-        <v>99.5</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="F35" t="n">
-        <v>106.3</v>
+        <v>103.6</v>
       </c>
       <c r="G35" t="n">
-        <v>99.09999999999999</v>
+        <v>99.3</v>
       </c>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="n">
-        <v>93.2</v>
+        <v>96.09999999999999</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>2002年8月</t>
+          <t>2002-11</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>96.59999999999999</v>
+        <v>97</v>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="n">
-        <v>98.59999999999999</v>
+        <v>98.3</v>
       </c>
       <c r="E36" t="n">
-        <v>99.5</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="F36" t="n">
-        <v>105.5</v>
+        <v>103</v>
       </c>
       <c r="G36" t="n">
-        <v>99.2</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="n">
-        <v>94.3</v>
+        <v>96.90000000000001</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>2002年9月</t>
+          <t>2002-12</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>96.8</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="n">
-        <v>98.5</v>
+        <v>98.3</v>
       </c>
       <c r="E37" t="n">
+        <v>99.3</v>
+      </c>
+      <c r="F37" t="n">
+        <v>102.5</v>
+      </c>
+      <c r="G37" t="n">
         <v>99.5</v>
       </c>
-      <c r="F37" t="n">
-        <v>104.5</v>
-      </c>
-      <c r="G37" t="n">
-        <v>99.3</v>
-      </c>
-      <c r="H37" t="n">
-        <v>100.2</v>
-      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="n">
-        <v>95.2</v>
+        <v>97.8</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>2003年10月</t>
+          <t>2003-01</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>100.2</v>
+        <v>100.4</v>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="n">
-        <v>100.5</v>
+        <v>99.66</v>
       </c>
       <c r="E38" t="n">
-        <v>101</v>
+        <v>99.45999999999999</v>
       </c>
       <c r="F38" t="n">
-        <v>95.09999999999999</v>
+        <v>95.51000000000001</v>
       </c>
       <c r="G38" t="n">
-        <v>102.6</v>
+        <v>102.7</v>
       </c>
       <c r="H38" t="n">
-        <v>101.8</v>
+        <v>104.5</v>
       </c>
       <c r="I38" t="n">
-        <v>121.4</v>
+        <v>124.81</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>2003年11月</t>
+          <t>2003-02</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>100.3275</v>
+        <v>99.0592</v>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="n">
-        <v>101.3743</v>
+        <v>99.5933</v>
       </c>
       <c r="E39" t="n">
-        <v>101.9712</v>
+        <v>98.5967</v>
       </c>
       <c r="F39" t="n">
-        <v>96.84350000000001</v>
+        <v>93.5351</v>
       </c>
       <c r="G39" t="n">
-        <v>103.0227</v>
+        <v>102.4946</v>
       </c>
       <c r="H39" t="n">
-        <v>101.7</v>
+        <v>100</v>
       </c>
       <c r="I39" t="n">
-        <v>121.2111</v>
+        <v>128.2416</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>2003年12月</t>
+          <t>2003-03</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>100.4707</v>
+        <v>98.8843</v>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="n">
-        <v>102.326</v>
+        <v>99.6643</v>
       </c>
       <c r="E40" t="n">
-        <v>102.792</v>
+        <v>98.4755</v>
       </c>
       <c r="F40" t="n">
-        <v>98.34050000000001</v>
+        <v>93.23650000000001</v>
       </c>
       <c r="G40" t="n">
-        <v>103.4464</v>
+        <v>102.9</v>
       </c>
       <c r="H40" t="n">
-        <v>101.6</v>
+        <v>97.3</v>
       </c>
       <c r="I40" t="n">
-        <v>121.127</v>
+        <v>135.5675</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>2003年1月</t>
+          <t>2003-04</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>100.4</v>
+        <v>99.30670000000001</v>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="n">
-        <v>99.66</v>
+        <v>99.711</v>
       </c>
       <c r="E41" t="n">
-        <v>99.45999999999999</v>
+        <v>98.6217</v>
       </c>
       <c r="F41" t="n">
-        <v>95.51000000000001</v>
+        <v>93.4191</v>
       </c>
       <c r="G41" t="n">
-        <v>102.7</v>
+        <v>103.1245</v>
       </c>
       <c r="H41" t="n">
-        <v>104.5</v>
+        <v>96.3</v>
       </c>
       <c r="I41" t="n">
-        <v>124.81</v>
+        <v>137.6327</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>2003年2月</t>
+          <t>2003-05</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>99.0592</v>
+        <v>99.21510000000001</v>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="n">
-        <v>99.5933</v>
+        <v>99.8738</v>
       </c>
       <c r="E42" t="n">
-        <v>98.5967</v>
+        <v>98.7136</v>
       </c>
       <c r="F42" t="n">
-        <v>93.5351</v>
+        <v>93.28700000000001</v>
       </c>
       <c r="G42" t="n">
-        <v>102.4946</v>
+        <v>102.9046</v>
       </c>
       <c r="H42" t="n">
-        <v>100</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="I42" t="n">
-        <v>128.2416</v>
+        <v>134.1967</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>2003年3月</t>
+          <t>2003-06</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>98.8843</v>
+        <v>99.3</v>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="n">
-        <v>99.6643</v>
+        <v>100</v>
       </c>
       <c r="E43" t="n">
-        <v>98.4755</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="F43" t="n">
-        <v>93.23650000000001</v>
+        <v>92.7</v>
       </c>
       <c r="G43" t="n">
-        <v>102.9</v>
+        <v>102.4</v>
       </c>
       <c r="H43" t="n">
-        <v>97.3</v>
+        <v>99</v>
       </c>
       <c r="I43" t="n">
-        <v>135.5675</v>
+        <v>128.9</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>2003年4月</t>
+          <t>2003-07</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>99.30670000000001</v>
+        <v>99.4776</v>
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="n">
-        <v>99.711</v>
+        <v>100.0557</v>
       </c>
       <c r="E44" t="n">
-        <v>98.6217</v>
+        <v>99.26439999999999</v>
       </c>
       <c r="F44" t="n">
-        <v>93.4191</v>
+        <v>92.601</v>
       </c>
       <c r="G44" t="n">
-        <v>103.1245</v>
+        <v>102.2176</v>
       </c>
       <c r="H44" t="n">
-        <v>96.3</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="I44" t="n">
-        <v>137.6327</v>
+        <v>125.4625</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>2003年5月</t>
+          <t>2003-08</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>99.21510000000001</v>
+        <v>99.6944</v>
       </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="n">
-        <v>99.8738</v>
+        <v>100.1157</v>
       </c>
       <c r="E45" t="n">
-        <v>98.7136</v>
+        <v>99.69240000000001</v>
       </c>
       <c r="F45" t="n">
-        <v>93.28700000000001</v>
+        <v>92.9936</v>
       </c>
       <c r="G45" t="n">
-        <v>102.9046</v>
+        <v>102.2</v>
       </c>
       <c r="H45" t="n">
-        <v>98.09999999999999</v>
+        <v>100.9</v>
       </c>
       <c r="I45" t="n">
-        <v>134.1967</v>
+        <v>123.1236</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>2003年6月</t>
+          <t>2003-09</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>99.3</v>
+        <v>99.9941</v>
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="n">
-        <v>100</v>
+        <v>100.1769</v>
       </c>
       <c r="E46" t="n">
-        <v>98.90000000000001</v>
+        <v>100.2213</v>
       </c>
       <c r="F46" t="n">
-        <v>92.7</v>
+        <v>93.9284</v>
       </c>
       <c r="G46" t="n">
-        <v>102.4</v>
+        <v>102.3047</v>
       </c>
       <c r="H46" t="n">
-        <v>99</v>
+        <v>101.5</v>
       </c>
       <c r="I46" t="n">
-        <v>128.9</v>
+        <v>121.9806</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>2003年7月</t>
+          <t>2003-10</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>99.4776</v>
+        <v>100.2</v>
       </c>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="n">
-        <v>100.0557</v>
+        <v>100.5</v>
       </c>
       <c r="E47" t="n">
-        <v>99.26439999999999</v>
+        <v>101</v>
       </c>
       <c r="F47" t="n">
-        <v>92.601</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="G47" t="n">
-        <v>102.2176</v>
+        <v>102.6</v>
       </c>
       <c r="H47" t="n">
-        <v>99.59999999999999</v>
+        <v>101.8</v>
       </c>
       <c r="I47" t="n">
-        <v>125.4625</v>
+        <v>121.4</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>2003年8月</t>
+          <t>2003-11</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>99.6944</v>
+        <v>100.3275</v>
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="n">
-        <v>100.1157</v>
+        <v>101.3743</v>
       </c>
       <c r="E48" t="n">
-        <v>99.69240000000001</v>
+        <v>101.9712</v>
       </c>
       <c r="F48" t="n">
-        <v>92.9936</v>
+        <v>96.84350000000001</v>
       </c>
       <c r="G48" t="n">
-        <v>102.2</v>
+        <v>103.0227</v>
       </c>
       <c r="H48" t="n">
-        <v>100.9</v>
+        <v>101.7</v>
       </c>
       <c r="I48" t="n">
-        <v>123.1236</v>
+        <v>121.2111</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>2003年9月</t>
+          <t>2003-12</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>99.9941</v>
+        <v>100.4707</v>
       </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="n">
-        <v>100.1769</v>
+        <v>102.326</v>
       </c>
       <c r="E49" t="n">
-        <v>100.2213</v>
+        <v>102.792</v>
       </c>
       <c r="F49" t="n">
-        <v>93.9284</v>
+        <v>98.34050000000001</v>
       </c>
       <c r="G49" t="n">
-        <v>102.3047</v>
+        <v>103.4464</v>
       </c>
       <c r="H49" t="n">
-        <v>101.5</v>
+        <v>101.6</v>
       </c>
       <c r="I49" t="n">
-        <v>121.9806</v>
+        <v>121.127</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>2004年10月</t>
+          <t>2004-01</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>112.0413</v>
+        <v>105.5298</v>
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="n">
-        <v>127.6402</v>
+        <v>113.944</v>
       </c>
       <c r="E50" t="n">
-        <v>119.1571</v>
+        <v>114.4719</v>
       </c>
       <c r="F50" t="n">
-        <v>122.9548</v>
+        <v>116.0857</v>
       </c>
       <c r="G50" t="n">
-        <v>109.9247</v>
+        <v>107.1453</v>
       </c>
       <c r="H50" t="n">
-        <v>102.4</v>
+        <v>104</v>
       </c>
       <c r="I50" t="n">
-        <v>94.91289999999999</v>
+        <v>100.0145</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>2004年11月</t>
+          <t>2004-02</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>111.9609</v>
+        <v>104.4092</v>
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="n">
-        <v>126.7559</v>
+        <v>115.3223</v>
       </c>
       <c r="E51" t="n">
-        <v>118.5201</v>
+        <v>112.7176</v>
       </c>
       <c r="F51" t="n">
-        <v>121.3993</v>
+        <v>115.2032</v>
       </c>
       <c r="G51" t="n">
-        <v>109.508</v>
+        <v>105.8112</v>
       </c>
       <c r="H51" t="n">
-        <v>102.4</v>
+        <v>102.3</v>
       </c>
       <c r="I51" t="n">
-        <v>94.0993</v>
+        <v>93.96339999999999</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>2004年12月</t>
+          <t>2004-03</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>111.8806</v>
+        <v>105.969</v>
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="n">
-        <v>125.7194</v>
+        <v>119.9033</v>
       </c>
       <c r="E52" t="n">
-        <v>117.8837</v>
+        <v>113.3901</v>
       </c>
       <c r="F52" t="n">
-        <v>120.4098</v>
+        <v>116.195</v>
       </c>
       <c r="G52" t="n">
-        <v>109.0707</v>
+        <v>106.0968</v>
       </c>
       <c r="H52" t="n">
-        <v>102.2</v>
+        <v>102.8</v>
       </c>
       <c r="I52" t="n">
-        <v>93.2809</v>
+        <v>90.5872</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>2004年1月</t>
+          <t>2004-04</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>105.5298</v>
+        <v>107.6388</v>
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="n">
-        <v>113.944</v>
+        <v>123.2016</v>
       </c>
       <c r="E53" t="n">
-        <v>114.4719</v>
+        <v>114.6347</v>
       </c>
       <c r="F53" t="n">
-        <v>116.0857</v>
+        <v>117.632</v>
       </c>
       <c r="G53" t="n">
-        <v>107.1453</v>
+        <v>106.8229</v>
       </c>
       <c r="H53" t="n">
-        <v>104</v>
+        <v>104.4</v>
       </c>
       <c r="I53" t="n">
-        <v>100.0145</v>
+        <v>89.2158</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>2004年2月</t>
+          <t>2004-05</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>104.4092</v>
+        <v>109.4751</v>
       </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="n">
-        <v>115.3223</v>
+        <v>124.9247</v>
       </c>
       <c r="E54" t="n">
-        <v>112.7176</v>
+        <v>115.7311</v>
       </c>
       <c r="F54" t="n">
-        <v>115.2032</v>
+        <v>118.2148</v>
       </c>
       <c r="G54" t="n">
-        <v>105.8112</v>
+        <v>107.643</v>
       </c>
       <c r="H54" t="n">
-        <v>102.3</v>
+        <v>104.9</v>
       </c>
       <c r="I54" t="n">
-        <v>93.96339999999999</v>
+        <v>89.9265</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>2004年3月</t>
+          <t>2004-06</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>105.969</v>
+        <v>110.8515</v>
       </c>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="n">
-        <v>119.9033</v>
+        <v>125.9747</v>
       </c>
       <c r="E55" t="n">
-        <v>113.3901</v>
+        <v>116.9174</v>
       </c>
       <c r="F55" t="n">
-        <v>116.195</v>
+        <v>120.4039</v>
       </c>
       <c r="G55" t="n">
-        <v>106.0968</v>
+        <v>108.5671</v>
       </c>
       <c r="H55" t="n">
-        <v>102.8</v>
+        <v>104.1</v>
       </c>
       <c r="I55" t="n">
-        <v>90.5872</v>
+        <v>92.0446</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>2004年4月</t>
+          <t>2004-07</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>107.6388</v>
+        <v>111.6517</v>
       </c>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="n">
-        <v>123.2016</v>
+        <v>126.6649</v>
       </c>
       <c r="E56" t="n">
-        <v>114.6347</v>
+        <v>117.8611</v>
       </c>
       <c r="F56" t="n">
-        <v>117.632</v>
+        <v>122.0755</v>
       </c>
       <c r="G56" t="n">
-        <v>106.8229</v>
+        <v>109.3019</v>
       </c>
       <c r="H56" t="n">
-        <v>104.4</v>
+        <v>103.8</v>
       </c>
       <c r="I56" t="n">
-        <v>89.2158</v>
+        <v>93.91930000000001</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>2004年5月</t>
+          <t>2004-08</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>109.4751</v>
+        <v>112.0309</v>
       </c>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="n">
-        <v>124.9247</v>
+        <v>127.1885</v>
       </c>
       <c r="E57" t="n">
-        <v>115.7311</v>
+        <v>118.6454</v>
       </c>
       <c r="F57" t="n">
-        <v>118.2148</v>
+        <v>122.9819</v>
       </c>
       <c r="G57" t="n">
-        <v>107.643</v>
+        <v>109.7593</v>
       </c>
       <c r="H57" t="n">
-        <v>104.9</v>
+        <v>103.3</v>
       </c>
       <c r="I57" t="n">
-        <v>89.9265</v>
+        <v>94.9465</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>2004年6月</t>
+          <t>2004-09</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>110.8515</v>
+        <v>112.0548</v>
       </c>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="n">
-        <v>125.9747</v>
+        <v>127.5981</v>
       </c>
       <c r="E58" t="n">
-        <v>116.9174</v>
+        <v>119.1563</v>
       </c>
       <c r="F58" t="n">
-        <v>120.4039</v>
+        <v>123.4612</v>
       </c>
       <c r="G58" t="n">
-        <v>108.5671</v>
+        <v>110.0076</v>
       </c>
       <c r="H58" t="n">
-        <v>104.1</v>
+        <v>102.7</v>
       </c>
       <c r="I58" t="n">
-        <v>92.0446</v>
+        <v>95.4371</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>2004年7月</t>
+          <t>2004-10</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>111.6517</v>
+        <v>112.0413</v>
       </c>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="n">
-        <v>126.6649</v>
+        <v>127.6402</v>
       </c>
       <c r="E59" t="n">
-        <v>117.8611</v>
+        <v>119.1571</v>
       </c>
       <c r="F59" t="n">
-        <v>122.0755</v>
+        <v>122.9548</v>
       </c>
       <c r="G59" t="n">
-        <v>109.3019</v>
+        <v>109.9247</v>
       </c>
       <c r="H59" t="n">
-        <v>103.8</v>
+        <v>102.4</v>
       </c>
       <c r="I59" t="n">
-        <v>93.91930000000001</v>
+        <v>94.91289999999999</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>2004年8月</t>
+          <t>2004-11</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>112.0309</v>
+        <v>111.9609</v>
       </c>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="n">
-        <v>127.1885</v>
+        <v>126.7559</v>
       </c>
       <c r="E60" t="n">
-        <v>118.6454</v>
+        <v>118.5201</v>
       </c>
       <c r="F60" t="n">
-        <v>122.9819</v>
+        <v>121.3993</v>
       </c>
       <c r="G60" t="n">
-        <v>109.7593</v>
+        <v>109.508</v>
       </c>
       <c r="H60" t="n">
-        <v>103.3</v>
+        <v>102.4</v>
       </c>
       <c r="I60" t="n">
-        <v>94.9465</v>
+        <v>94.0993</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>2004年9月</t>
+          <t>2004-12</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>112.0548</v>
+        <v>111.8806</v>
       </c>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="n">
-        <v>127.5981</v>
+        <v>125.7194</v>
       </c>
       <c r="E61" t="n">
-        <v>119.1563</v>
+        <v>117.8837</v>
       </c>
       <c r="F61" t="n">
-        <v>123.4612</v>
+        <v>120.4098</v>
       </c>
       <c r="G61" t="n">
-        <v>110.0076</v>
+        <v>109.0707</v>
       </c>
       <c r="H61" t="n">
-        <v>102.7</v>
+        <v>102.2</v>
       </c>
       <c r="I61" t="n">
-        <v>95.4371</v>
+        <v>93.2809</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>2005年10月</t>
+          <t>2005-01</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>106.3274</v>
+        <v>108.0685</v>
       </c>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="n">
-        <v>101.716</v>
+        <v>114.1204</v>
       </c>
       <c r="E62" t="n">
-        <v>103.8935</v>
+        <v>109.1797</v>
       </c>
       <c r="F62" t="n">
-        <v>106.0986</v>
+        <v>110.6157</v>
       </c>
       <c r="G62" t="n">
-        <v>103.2616</v>
+        <v>103.6957</v>
       </c>
       <c r="H62" t="n">
-        <v>99.8537</v>
+        <v>92.8</v>
       </c>
       <c r="I62" t="n">
-        <v>108.6368</v>
+        <v>90.4824</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>2005年11月</t>
+          <t>2005-02</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>106.1695</v>
+        <v>111.9637</v>
       </c>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="n">
-        <v>101.5505</v>
+        <v>112.9558</v>
       </c>
       <c r="E63" t="n">
-        <v>102.9262</v>
+        <v>111.7546</v>
       </c>
       <c r="F63" t="n">
-        <v>105.2783</v>
+        <v>113.1242</v>
       </c>
       <c r="G63" t="n">
-        <v>103.1588</v>
+        <v>106.2719</v>
       </c>
       <c r="H63" t="n">
-        <v>101.1519</v>
+        <v>95</v>
       </c>
       <c r="I63" t="n">
-        <v>109.7323</v>
+        <v>102.6542</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>2005年12月</t>
+          <t>2005-03</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>106.143</v>
+        <v>111.8154</v>
       </c>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="n">
-        <v>101.4885</v>
+        <v>108.7933</v>
       </c>
       <c r="E64" t="n">
-        <v>102.1292</v>
+        <v>111.7207</v>
       </c>
       <c r="F64" t="n">
-        <v>104.1984</v>
+        <v>112.16</v>
       </c>
       <c r="G64" t="n">
-        <v>103.1273</v>
+        <v>106.0205</v>
       </c>
       <c r="H64" t="n">
-        <v>102.2567</v>
+        <v>94.7</v>
       </c>
       <c r="I64" t="n">
-        <v>111.0022</v>
+        <v>104.8201</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>2005年1月</t>
+          <t>2005-04</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>108.0685</v>
+        <v>110.5968</v>
       </c>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="n">
-        <v>114.1204</v>
+        <v>105.9698</v>
       </c>
       <c r="E65" t="n">
-        <v>109.1797</v>
+        <v>110.8455</v>
       </c>
       <c r="F65" t="n">
-        <v>110.6157</v>
+        <v>110.6734</v>
       </c>
       <c r="G65" t="n">
-        <v>103.6957</v>
+        <v>105.2931</v>
       </c>
       <c r="H65" t="n">
-        <v>92.8</v>
+        <v>93.3</v>
       </c>
       <c r="I65" t="n">
-        <v>90.4824</v>
+        <v>105.3342</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>2005年2月</t>
+          <t>2005-05</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>111.9637</v>
+        <v>109.0097</v>
       </c>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="n">
-        <v>112.9558</v>
+        <v>104.365</v>
       </c>
       <c r="E66" t="n">
-        <v>111.7546</v>
+        <v>109.948</v>
       </c>
       <c r="F66" t="n">
-        <v>113.1242</v>
+        <v>110.9255</v>
       </c>
       <c r="G66" t="n">
-        <v>106.2719</v>
+        <v>104.7956</v>
       </c>
       <c r="H66" t="n">
-        <v>95</v>
+        <v>92.7</v>
       </c>
       <c r="I66" t="n">
-        <v>102.6542</v>
+        <v>106.1979</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>2005年3月</t>
+          <t>2005-06</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>111.8154</v>
+        <v>107.808</v>
       </c>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="n">
-        <v>108.7933</v>
+        <v>103.4284</v>
       </c>
       <c r="E67" t="n">
-        <v>111.7207</v>
+        <v>108.7849</v>
       </c>
       <c r="F67" t="n">
-        <v>112.16</v>
+        <v>110.3225</v>
       </c>
       <c r="G67" t="n">
-        <v>106.0205</v>
+        <v>104.3498</v>
       </c>
       <c r="H67" t="n">
-        <v>94.7</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="I67" t="n">
-        <v>104.8201</v>
+        <v>106.5693</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>2005年4月</t>
+          <t>2005-07</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>110.5968</v>
+        <v>107.075</v>
       </c>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="n">
-        <v>105.9698</v>
+        <v>102.8168</v>
       </c>
       <c r="E68" t="n">
-        <v>110.8455</v>
+        <v>107.5108</v>
       </c>
       <c r="F68" t="n">
-        <v>110.6734</v>
+        <v>109.4969</v>
       </c>
       <c r="G68" t="n">
-        <v>105.2931</v>
+        <v>104.1033</v>
       </c>
       <c r="H68" t="n">
-        <v>93.3</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="I68" t="n">
-        <v>105.3342</v>
+        <v>107.6219</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>2005年5月</t>
+          <t>2005-08</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>109.0097</v>
+        <v>106.705</v>
       </c>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="n">
-        <v>104.365</v>
+        <v>102.3632</v>
       </c>
       <c r="E69" t="n">
-        <v>109.948</v>
+        <v>106.1794</v>
       </c>
       <c r="F69" t="n">
-        <v>110.9255</v>
+        <v>108.3927</v>
       </c>
       <c r="G69" t="n">
-        <v>104.7956</v>
+        <v>103.757</v>
       </c>
       <c r="H69" t="n">
-        <v>92.7</v>
+        <v>97.0335</v>
       </c>
       <c r="I69" t="n">
-        <v>106.1979</v>
+        <v>107.819</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>2005年6月</t>
+          <t>2005-09</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>107.808</v>
+        <v>106.5059</v>
       </c>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="n">
-        <v>103.4284</v>
+        <v>101.9971</v>
       </c>
       <c r="E70" t="n">
-        <v>108.7849</v>
+        <v>104.9605</v>
       </c>
       <c r="F70" t="n">
-        <v>110.3225</v>
+        <v>107.0377</v>
       </c>
       <c r="G70" t="n">
-        <v>104.3498</v>
+        <v>103.4266</v>
       </c>
       <c r="H70" t="n">
-        <v>93.59999999999999</v>
+        <v>98.554</v>
       </c>
       <c r="I70" t="n">
-        <v>106.5693</v>
+        <v>107.682</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>2005年7月</t>
+          <t>2005-10</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>107.075</v>
+        <v>106.3274</v>
       </c>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="n">
-        <v>102.8168</v>
+        <v>101.716</v>
       </c>
       <c r="E71" t="n">
-        <v>107.5108</v>
+        <v>103.8935</v>
       </c>
       <c r="F71" t="n">
-        <v>109.4969</v>
+        <v>106.0986</v>
       </c>
       <c r="G71" t="n">
-        <v>104.1033</v>
+        <v>103.2616</v>
       </c>
       <c r="H71" t="n">
-        <v>95.59999999999999</v>
+        <v>99.8537</v>
       </c>
       <c r="I71" t="n">
-        <v>107.6219</v>
+        <v>108.6368</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>2005年8月</t>
+          <t>2005-11</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>106.705</v>
+        <v>106.1695</v>
       </c>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="n">
-        <v>102.3632</v>
+        <v>101.5505</v>
       </c>
       <c r="E72" t="n">
-        <v>106.1794</v>
+        <v>102.9262</v>
       </c>
       <c r="F72" t="n">
-        <v>108.3927</v>
+        <v>105.2783</v>
       </c>
       <c r="G72" t="n">
-        <v>103.757</v>
+        <v>103.1588</v>
       </c>
       <c r="H72" t="n">
-        <v>97.0335</v>
+        <v>101.1519</v>
       </c>
       <c r="I72" t="n">
-        <v>107.819</v>
+        <v>109.7323</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>2005年9月</t>
+          <t>2005-12</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>106.5059</v>
+        <v>106.143</v>
       </c>
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="n">
-        <v>101.9971</v>
+        <v>101.4885</v>
       </c>
       <c r="E73" t="n">
-        <v>104.9605</v>
+        <v>102.1292</v>
       </c>
       <c r="F73" t="n">
-        <v>107.0377</v>
+        <v>104.1984</v>
       </c>
       <c r="G73" t="n">
-        <v>103.4266</v>
+        <v>103.1273</v>
       </c>
       <c r="H73" t="n">
-        <v>98.554</v>
+        <v>102.2567</v>
       </c>
       <c r="I73" t="n">
-        <v>107.682</v>
+        <v>111.0022</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>2006年10月</t>
+          <t>2006-01</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>101.23876248</v>
+        <v>104.58162886</v>
       </c>
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="n">
-        <v>102.07348449</v>
+        <v>101.0310467</v>
       </c>
       <c r="E74" t="n">
-        <v>94.66350738</v>
+        <v>95.54875205</v>
       </c>
       <c r="F74" t="n">
-        <v>92.38064740999999</v>
+        <v>91.81568385</v>
       </c>
       <c r="G74" t="n">
-        <v>102.04967358</v>
+        <v>104.13725589</v>
       </c>
       <c r="H74" t="n">
-        <v>124.64604017</v>
+        <v>121.03030173</v>
       </c>
       <c r="I74" t="n">
-        <v>110.20279813</v>
+        <v>134.47928152</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>2006年11月</t>
+          <t>2006-02</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>101.39669794</v>
+        <v>101.40539396</v>
       </c>
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="n">
-        <v>102.29863918</v>
+        <v>101.02923862</v>
       </c>
       <c r="E75" t="n">
-        <v>95.7458572</v>
+        <v>94.54968304000001</v>
       </c>
       <c r="F75" t="n">
-        <v>93.99227947</v>
+        <v>89.33232185</v>
       </c>
       <c r="G75" t="n">
-        <v>102.16628592</v>
+        <v>102.76296211</v>
       </c>
       <c r="H75" t="n">
-        <v>122.39603645</v>
+        <v>121.05932995</v>
       </c>
       <c r="I75" t="n">
-        <v>108.93049636</v>
+        <v>123.07072685</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>2006年12月</t>
+          <t>2006-03</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>101.48166061</v>
+        <v>100.11166166</v>
       </c>
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="n">
-        <v>102.65837009</v>
+        <v>101.00253277</v>
       </c>
       <c r="E76" t="n">
-        <v>97.11056587</v>
+        <v>93.8021569</v>
       </c>
       <c r="F76" t="n">
-        <v>95.96273952999999</v>
+        <v>89.55187502</v>
       </c>
       <c r="G76" t="n">
-        <v>102.4691298</v>
+        <v>102.21386576</v>
       </c>
       <c r="H76" t="n">
-        <v>120.21982657</v>
+        <v>122.8894863</v>
       </c>
       <c r="I76" t="n">
-        <v>108.24884652</v>
+        <v>118.57074206</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>2006年1月</t>
+          <t>2006-04</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>104.58162886</v>
+        <v>99.88917604</v>
       </c>
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="n">
-        <v>101.0310467</v>
+        <v>101.05829559</v>
       </c>
       <c r="E77" t="n">
-        <v>95.54875205</v>
+        <v>93.21269928</v>
       </c>
       <c r="F77" t="n">
-        <v>91.81568385</v>
+        <v>89.84315305</v>
       </c>
       <c r="G77" t="n">
-        <v>104.13725589</v>
+        <v>102.18720257</v>
       </c>
       <c r="H77" t="n">
-        <v>121.03030173</v>
+        <v>125.55498043</v>
       </c>
       <c r="I77" t="n">
-        <v>134.47928152</v>
+        <v>117.70269258</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>2006年2月</t>
+          <t>2006-05</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>101.40539396</v>
+        <v>100.17603716</v>
       </c>
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="n">
-        <v>101.02923862</v>
+        <v>101.17210962</v>
       </c>
       <c r="E78" t="n">
-        <v>94.54968304000001</v>
+        <v>92.75645517</v>
       </c>
       <c r="F78" t="n">
-        <v>89.33232185</v>
+        <v>89.23333587</v>
       </c>
       <c r="G78" t="n">
-        <v>102.76296211</v>
+        <v>102.20693212</v>
       </c>
       <c r="H78" t="n">
-        <v>121.05932995</v>
+        <v>127.9915137</v>
       </c>
       <c r="I78" t="n">
-        <v>123.07072685</v>
+        <v>117.17553612</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>2006年3月</t>
+          <t>2006-06</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>100.11166166</v>
+        <v>100.46533726</v>
       </c>
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="n">
-        <v>101.00253277</v>
+        <v>101.302507</v>
       </c>
       <c r="E79" t="n">
-        <v>93.8021569</v>
+        <v>92.49316679</v>
       </c>
       <c r="F79" t="n">
-        <v>89.55187502</v>
+        <v>88.58789896</v>
       </c>
       <c r="G79" t="n">
-        <v>102.21386576</v>
+        <v>102.26529286</v>
       </c>
       <c r="H79" t="n">
-        <v>122.8894863</v>
+        <v>130.96362205</v>
       </c>
       <c r="I79" t="n">
-        <v>118.57074206</v>
+        <v>116.73525347</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>2006年4月</t>
+          <t>2006-07</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>99.88917604</v>
+        <v>100.82835061</v>
       </c>
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="n">
-        <v>101.05829559</v>
+        <v>101.50598363</v>
       </c>
       <c r="E80" t="n">
-        <v>93.21269928</v>
+        <v>92.5878258</v>
       </c>
       <c r="F80" t="n">
-        <v>89.84315305</v>
+        <v>88.50937672000001</v>
       </c>
       <c r="G80" t="n">
-        <v>102.18720257</v>
+        <v>102.05006876</v>
       </c>
       <c r="H80" t="n">
-        <v>125.55498043</v>
+        <v>130.63176088</v>
       </c>
       <c r="I80" t="n">
-        <v>117.70269258</v>
+        <v>114.03387235</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>2006年5月</t>
+          <t>2006-08</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>100.17603716</v>
+        <v>101.05822731</v>
       </c>
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="n">
-        <v>101.17210962</v>
+        <v>101.70316995</v>
       </c>
       <c r="E81" t="n">
-        <v>92.75645517</v>
+        <v>93.12186874</v>
       </c>
       <c r="F81" t="n">
-        <v>89.23333587</v>
+        <v>89.53028212</v>
       </c>
       <c r="G81" t="n">
-        <v>102.20693212</v>
+        <v>101.97596018</v>
       </c>
       <c r="H81" t="n">
-        <v>127.9915137</v>
+        <v>128.9150723</v>
       </c>
       <c r="I81" t="n">
-        <v>117.17553612</v>
+        <v>112.34704352</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>2006年6月</t>
+          <t>2006-09</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>100.46533726</v>
+        <v>101.06314095</v>
       </c>
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="n">
-        <v>101.302507</v>
+        <v>101.89266712</v>
       </c>
       <c r="E82" t="n">
-        <v>92.49316679</v>
+        <v>93.813158</v>
       </c>
       <c r="F82" t="n">
-        <v>88.58789896</v>
+        <v>90.89947579</v>
       </c>
       <c r="G82" t="n">
-        <v>102.26529286</v>
+        <v>102.03165417</v>
       </c>
       <c r="H82" t="n">
-        <v>130.96362205</v>
+        <v>126.64647387</v>
       </c>
       <c r="I82" t="n">
-        <v>116.73525347</v>
+        <v>111.86541793</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>2006年7月</t>
+          <t>2006-10</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>100.82835061</v>
+        <v>101.23876248</v>
       </c>
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="n">
-        <v>101.50598363</v>
+        <v>102.07348449</v>
       </c>
       <c r="E83" t="n">
-        <v>92.5878258</v>
+        <v>94.66350738</v>
       </c>
       <c r="F83" t="n">
-        <v>88.50937672000001</v>
+        <v>92.38064740999999</v>
       </c>
       <c r="G83" t="n">
-        <v>102.05006876</v>
+        <v>102.04967358</v>
       </c>
       <c r="H83" t="n">
-        <v>130.63176088</v>
+        <v>124.64604017</v>
       </c>
       <c r="I83" t="n">
-        <v>114.03387235</v>
+        <v>110.20279813</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>2006年8月</t>
+          <t>2006-11</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>101.05822731</v>
+        <v>101.39669794</v>
       </c>
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="n">
-        <v>101.70316995</v>
+        <v>102.29863918</v>
       </c>
       <c r="E84" t="n">
-        <v>93.12186874</v>
+        <v>95.7458572</v>
       </c>
       <c r="F84" t="n">
-        <v>89.53028212</v>
+        <v>93.99227947</v>
       </c>
       <c r="G84" t="n">
-        <v>101.97596018</v>
+        <v>102.16628592</v>
       </c>
       <c r="H84" t="n">
-        <v>128.9150723</v>
+        <v>122.39603645</v>
       </c>
       <c r="I84" t="n">
-        <v>112.34704352</v>
+        <v>108.93049636</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>2006年9月</t>
+          <t>2006-12</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>101.06314095</v>
+        <v>101.48166061</v>
       </c>
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="n">
-        <v>101.89266712</v>
+        <v>102.65837009</v>
       </c>
       <c r="E85" t="n">
-        <v>93.813158</v>
+        <v>97.11056587</v>
       </c>
       <c r="F85" t="n">
-        <v>90.89947579</v>
+        <v>95.96273952999999</v>
       </c>
       <c r="G85" t="n">
-        <v>102.03165417</v>
+        <v>102.4691298</v>
       </c>
       <c r="H85" t="n">
-        <v>126.64647387</v>
+        <v>120.21982657</v>
       </c>
       <c r="I85" t="n">
-        <v>111.86541793</v>
+        <v>108.24884652</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>2007年10月</t>
+          <t>2007-01</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>104.2</v>
+        <v>99.64565191</v>
       </c>
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="n">
-        <v>106.4</v>
+        <v>106.76379678</v>
       </c>
       <c r="E86" t="n">
-        <v>129.9</v>
+        <v>113.28997415</v>
       </c>
       <c r="F86" t="n">
-        <v>125.7</v>
+        <v>120.27405377</v>
       </c>
       <c r="G86" t="n">
-        <v>110.7</v>
+        <v>104.47440717</v>
       </c>
       <c r="H86" t="n">
-        <v>97.40000000000001</v>
+        <v>103.99349239</v>
       </c>
       <c r="I86" t="n">
-        <v>104.7</v>
+        <v>87.90270495999999</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>2007年11月</t>
+          <t>2007-02</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>104.40375948</v>
+        <v>101.37110588</v>
       </c>
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="n">
-        <v>106.45970741</v>
+        <v>106.71153012</v>
       </c>
       <c r="E87" t="n">
-        <v>130.8178908</v>
+        <v>114.32367967</v>
       </c>
       <c r="F87" t="n">
-        <v>124.09527924</v>
+        <v>124.15568954</v>
       </c>
       <c r="G87" t="n">
-        <v>111.30972709</v>
+        <v>104.98005584</v>
       </c>
       <c r="H87" t="n">
-        <v>98.5933552</v>
+        <v>105.76562241</v>
       </c>
       <c r="I87" t="n">
-        <v>106.45844503</v>
+        <v>88.42414060999999</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>2007年12月</t>
+          <t>2007-03</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>104.48977193</v>
+        <v>102.57751655</v>
       </c>
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="n">
-        <v>106.41322671</v>
+        <v>106.61513483</v>
       </c>
       <c r="E88" t="n">
-        <v>131.57845669</v>
+        <v>115.11788407</v>
       </c>
       <c r="F88" t="n">
-        <v>122.19520074</v>
+        <v>125.40945133</v>
       </c>
       <c r="G88" t="n">
-        <v>111.73924152</v>
+        <v>105.7876706</v>
       </c>
       <c r="H88" t="n">
-        <v>99.77636871</v>
+        <v>105.81074905</v>
       </c>
       <c r="I88" t="n">
-        <v>106.61180673</v>
+        <v>92.81811775</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>2007年1月</t>
+          <t>2007-04</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>99.64565191</v>
+        <v>102.90257765</v>
       </c>
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="n">
-        <v>106.76379678</v>
+        <v>106.50719935</v>
       </c>
       <c r="E89" t="n">
-        <v>113.28997415</v>
+        <v>115.7438679</v>
       </c>
       <c r="F89" t="n">
-        <v>120.27405377</v>
+        <v>126.141662</v>
       </c>
       <c r="G89" t="n">
-        <v>104.47440717</v>
+        <v>106.02782357</v>
       </c>
       <c r="H89" t="n">
-        <v>103.99349239</v>
+        <v>102.73926746</v>
       </c>
       <c r="I89" t="n">
-        <v>87.90270495999999</v>
+        <v>95.26144116</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>2007年2月</t>
+          <t>2007-05</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>101.37110588</v>
+        <v>103.06845961</v>
       </c>
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="n">
-        <v>106.71153012</v>
+        <v>106.41824341</v>
       </c>
       <c r="E90" t="n">
-        <v>114.32367967</v>
+        <v>117.7974911</v>
       </c>
       <c r="F90" t="n">
-        <v>124.15568954</v>
+        <v>127.90497731</v>
       </c>
       <c r="G90" t="n">
-        <v>104.98005584</v>
+        <v>106.36270248</v>
       </c>
       <c r="H90" t="n">
-        <v>105.76562241</v>
+        <v>99.59242684</v>
       </c>
       <c r="I90" t="n">
-        <v>88.42414060999999</v>
+        <v>95.63143914</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>2007年3月</t>
+          <t>2007-06</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>102.57751655</v>
+        <v>103.34956733</v>
       </c>
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="n">
-        <v>106.61513483</v>
+        <v>106.3947769</v>
       </c>
       <c r="E91" t="n">
-        <v>115.11788407</v>
+        <v>120.62419736</v>
       </c>
       <c r="F91" t="n">
-        <v>125.40945133</v>
+        <v>129.20487896</v>
       </c>
       <c r="G91" t="n">
-        <v>105.7876706</v>
+        <v>107.05322568</v>
       </c>
       <c r="H91" t="n">
-        <v>105.81074905</v>
+        <v>96.84003048</v>
       </c>
       <c r="I91" t="n">
-        <v>92.81811775</v>
+        <v>96.79645696</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>2007年4月</t>
+          <t>2007-07</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>102.90257765</v>
+        <v>103.51337884</v>
       </c>
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="n">
-        <v>106.50719935</v>
+        <v>106.35277074</v>
       </c>
       <c r="E92" t="n">
-        <v>115.7438679</v>
+        <v>123.96260396</v>
       </c>
       <c r="F92" t="n">
-        <v>126.141662</v>
+        <v>129.27851218</v>
       </c>
       <c r="G92" t="n">
-        <v>106.02782357</v>
+        <v>108.0904239</v>
       </c>
       <c r="H92" t="n">
-        <v>102.73926746</v>
+        <v>95.60027608</v>
       </c>
       <c r="I92" t="n">
-        <v>95.26144116</v>
+        <v>99.18385661000001</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>2007年5月</t>
+          <t>2007-08</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>103.06845961</v>
+        <v>103.71381148</v>
       </c>
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="n">
-        <v>106.41824341</v>
+        <v>106.36249713</v>
       </c>
       <c r="E93" t="n">
-        <v>117.7974911</v>
+        <v>127.09723827</v>
       </c>
       <c r="F93" t="n">
-        <v>127.90497731</v>
+        <v>128.50397102</v>
       </c>
       <c r="G93" t="n">
-        <v>106.36270248</v>
+        <v>109.2116642</v>
       </c>
       <c r="H93" t="n">
-        <v>99.59242684</v>
+        <v>95.61369009000001</v>
       </c>
       <c r="I93" t="n">
-        <v>95.63143914</v>
+        <v>101.51956214</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>2007年6月</t>
+          <t>2007-09</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>103.34956733</v>
+        <v>104.03558496</v>
       </c>
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="n">
-        <v>106.3947769</v>
+        <v>106.38814262</v>
       </c>
       <c r="E94" t="n">
-        <v>120.62419736</v>
+        <v>128.92590745</v>
       </c>
       <c r="F94" t="n">
-        <v>129.20487896</v>
+        <v>127.08764835</v>
       </c>
       <c r="G94" t="n">
-        <v>107.05322568</v>
+        <v>109.96816521</v>
       </c>
       <c r="H94" t="n">
-        <v>96.84003048</v>
+        <v>96.38957889</v>
       </c>
       <c r="I94" t="n">
-        <v>96.79645696</v>
+        <v>102.47059405</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>2007年7月</t>
+          <t>2007-10</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>103.51337884</v>
+        <v>104.2</v>
       </c>
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="n">
-        <v>106.35277074</v>
+        <v>106.4</v>
       </c>
       <c r="E95" t="n">
-        <v>123.96260396</v>
+        <v>129.9</v>
       </c>
       <c r="F95" t="n">
-        <v>129.27851218</v>
+        <v>125.7</v>
       </c>
       <c r="G95" t="n">
-        <v>108.0904239</v>
+        <v>110.7</v>
       </c>
       <c r="H95" t="n">
-        <v>95.60027608</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="I95" t="n">
-        <v>99.18385661000001</v>
+        <v>104.7</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>2007年8月</t>
+          <t>2007-11</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>103.71381148</v>
+        <v>104.40375948</v>
       </c>
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="n">
-        <v>106.36249713</v>
+        <v>106.45970741</v>
       </c>
       <c r="E96" t="n">
-        <v>127.09723827</v>
+        <v>130.8178908</v>
       </c>
       <c r="F96" t="n">
-        <v>128.50397102</v>
+        <v>124.09527924</v>
       </c>
       <c r="G96" t="n">
-        <v>109.2116642</v>
+        <v>111.30972709</v>
       </c>
       <c r="H96" t="n">
-        <v>95.61369009000001</v>
+        <v>98.5933552</v>
       </c>
       <c r="I96" t="n">
-        <v>101.51956214</v>
+        <v>106.45844503</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>2007年9月</t>
+          <t>2007-12</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>104.03558496</v>
+        <v>104.48977193</v>
       </c>
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="n">
-        <v>106.38814262</v>
+        <v>106.41322671</v>
       </c>
       <c r="E97" t="n">
-        <v>128.92590745</v>
+        <v>131.57845669</v>
       </c>
       <c r="F97" t="n">
-        <v>127.08764835</v>
+        <v>122.19520074</v>
       </c>
       <c r="G97" t="n">
-        <v>109.96816521</v>
+        <v>111.73924152</v>
       </c>
       <c r="H97" t="n">
-        <v>96.38957889</v>
+        <v>99.77636871</v>
       </c>
       <c r="I97" t="n">
-        <v>102.47059405</v>
+        <v>106.61180673</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>2008年10月</t>
+          <t>2008-01</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>114.38252865</v>
+        <v>108.33039487</v>
       </c>
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="n">
-        <v>107.61975873</v>
+        <v>106.23405303</v>
       </c>
       <c r="E98" t="n">
-        <v>127.52235216</v>
+        <v>141.45882059</v>
       </c>
       <c r="F98" t="n">
-        <v>104.5681332</v>
+        <v>105.47504638</v>
       </c>
       <c r="G98" t="n">
-        <v>116.35726711</v>
+        <v>117.78626616</v>
       </c>
       <c r="H98" t="n">
-        <v>110.09164463</v>
+        <v>110.1868941</v>
       </c>
       <c r="I98" t="n">
-        <v>112.33487713</v>
+        <v>112.77753691</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>2008年11月</t>
+          <t>2008-02</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>114.10566468</v>
+        <v>110.83856509</v>
       </c>
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="n">
-        <v>107.48289419</v>
+        <v>106.38364576</v>
       </c>
       <c r="E99" t="n">
-        <v>125.02161833</v>
+        <v>143.5059988</v>
       </c>
       <c r="F99" t="n">
-        <v>104.46273903</v>
+        <v>106.17174788</v>
       </c>
       <c r="G99" t="n">
-        <v>115.4173336</v>
+        <v>120.42991881</v>
       </c>
       <c r="H99" t="n">
-        <v>109.59352324</v>
+        <v>108.9484508</v>
       </c>
       <c r="I99" t="n">
-        <v>110.95843527</v>
+        <v>129.66852832</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>2008年12月</t>
+          <t>2008-03</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>113.81690748</v>
+        <v>110.85104866</v>
       </c>
       <c r="C100" t="inlineStr"/>
       <c r="D100" t="n">
-        <v>107.24327144</v>
+        <v>106.62532359</v>
       </c>
       <c r="E100" t="n">
-        <v>122.57444418</v>
+        <v>144.33449578</v>
       </c>
       <c r="F100" t="n">
-        <v>104.27751437</v>
+        <v>105.61623848</v>
       </c>
       <c r="G100" t="n">
-        <v>114.4585138</v>
+        <v>120.6023424</v>
       </c>
       <c r="H100" t="n">
-        <v>108.92287643</v>
+        <v>107.16348983</v>
       </c>
       <c r="I100" t="n">
-        <v>110.46761813</v>
+        <v>126.91984042</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>2008年1月</t>
+          <t>2008-04</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>108.33039487</v>
+        <v>111.95839895</v>
       </c>
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="n">
-        <v>106.23405303</v>
+        <v>106.85279821</v>
       </c>
       <c r="E101" t="n">
-        <v>141.45882059</v>
+        <v>145.31383514</v>
       </c>
       <c r="F101" t="n">
-        <v>105.47504638</v>
+        <v>105.33472206</v>
       </c>
       <c r="G101" t="n">
-        <v>117.78626616</v>
+        <v>120.85505526</v>
       </c>
       <c r="H101" t="n">
-        <v>110.1868941</v>
+        <v>108.46606431</v>
       </c>
       <c r="I101" t="n">
-        <v>112.77753691</v>
+        <v>123.35802063</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>2008年2月</t>
+          <t>2008-05</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>110.83856509</v>
+        <v>113.01797878</v>
       </c>
       <c r="C102" t="inlineStr"/>
       <c r="D102" t="n">
-        <v>106.38364576</v>
+        <v>107.20737159</v>
       </c>
       <c r="E102" t="n">
-        <v>143.5059988</v>
+        <v>143.9103944</v>
       </c>
       <c r="F102" t="n">
-        <v>106.17174788</v>
+        <v>104.80350547</v>
       </c>
       <c r="G102" t="n">
-        <v>120.42991881</v>
+        <v>120.59519806</v>
       </c>
       <c r="H102" t="n">
-        <v>108.9484508</v>
+        <v>108.73638216</v>
       </c>
       <c r="I102" t="n">
-        <v>129.66852832</v>
+        <v>120.90841961</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>2008年3月</t>
+          <t>2008-06</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>110.85104866</v>
+        <v>113.75070448</v>
       </c>
       <c r="C103" t="inlineStr"/>
       <c r="D103" t="n">
-        <v>106.62532359</v>
+        <v>107.46084891</v>
       </c>
       <c r="E103" t="n">
-        <v>144.33449578</v>
+        <v>141.09827708</v>
       </c>
       <c r="F103" t="n">
-        <v>105.61623848</v>
+        <v>104.44529403</v>
       </c>
       <c r="G103" t="n">
-        <v>120.6023424</v>
+        <v>120.0401844</v>
       </c>
       <c r="H103" t="n">
-        <v>107.16348983</v>
+        <v>109.55233954</v>
       </c>
       <c r="I103" t="n">
-        <v>126.91984042</v>
+        <v>118.97708189</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>2008年4月</t>
+          <t>2008-07</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>111.95839895</v>
+        <v>114.34447127</v>
       </c>
       <c r="C104" t="inlineStr"/>
       <c r="D104" t="n">
-        <v>106.85279821</v>
+        <v>107.61713185</v>
       </c>
       <c r="E104" t="n">
-        <v>145.31383514</v>
+        <v>137.21249787</v>
       </c>
       <c r="F104" t="n">
-        <v>105.33472206</v>
+        <v>104.69486438</v>
       </c>
       <c r="G104" t="n">
-        <v>120.85505526</v>
+        <v>119.27088213</v>
       </c>
       <c r="H104" t="n">
-        <v>108.46606431</v>
+        <v>110.49456855</v>
       </c>
       <c r="I104" t="n">
-        <v>123.35802063</v>
+        <v>117.63240406</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>2008年5月</t>
+          <t>2008-08</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>113.01797878</v>
+        <v>114.57978309</v>
       </c>
       <c r="C105" t="inlineStr"/>
       <c r="D105" t="n">
-        <v>107.20737159</v>
+        <v>107.6724645</v>
       </c>
       <c r="E105" t="n">
-        <v>143.9103944</v>
+        <v>133.04773199</v>
       </c>
       <c r="F105" t="n">
-        <v>104.80350547</v>
+        <v>104.41764359</v>
       </c>
       <c r="G105" t="n">
-        <v>120.59519806</v>
+        <v>118.14970976</v>
       </c>
       <c r="H105" t="n">
-        <v>108.73638216</v>
+        <v>110.79084465</v>
       </c>
       <c r="I105" t="n">
-        <v>120.90841961</v>
+        <v>115.35630001</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>2008年6月</t>
+          <t>2008-09</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>113.75070448</v>
+        <v>114.58553707</v>
       </c>
       <c r="C106" t="inlineStr"/>
       <c r="D106" t="n">
-        <v>107.46084891</v>
+        <v>107.67665624</v>
       </c>
       <c r="E106" t="n">
-        <v>141.09827708</v>
+        <v>130.02544096</v>
       </c>
       <c r="F106" t="n">
-        <v>104.44529403</v>
+        <v>104.56581272</v>
       </c>
       <c r="G106" t="n">
-        <v>120.0401844</v>
+        <v>117.21883297</v>
       </c>
       <c r="H106" t="n">
-        <v>109.55233954</v>
+        <v>110.62049398</v>
       </c>
       <c r="I106" t="n">
-        <v>118.97708189</v>
+        <v>113.69437239</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>2008年7月</t>
+          <t>2008-10</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>114.34447127</v>
+        <v>114.38252865</v>
       </c>
       <c r="C107" t="inlineStr"/>
       <c r="D107" t="n">
-        <v>107.61713185</v>
+        <v>107.61975873</v>
       </c>
       <c r="E107" t="n">
-        <v>137.21249787</v>
+        <v>127.52235216</v>
       </c>
       <c r="F107" t="n">
-        <v>104.69486438</v>
+        <v>104.5681332</v>
       </c>
       <c r="G107" t="n">
-        <v>119.27088213</v>
+        <v>116.35726711</v>
       </c>
       <c r="H107" t="n">
-        <v>110.49456855</v>
+        <v>110.09164463</v>
       </c>
       <c r="I107" t="n">
-        <v>117.63240406</v>
+        <v>112.33487713</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>2008年8月</t>
+          <t>2008-11</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>114.57978309</v>
+        <v>114.10566468</v>
       </c>
       <c r="C108" t="inlineStr"/>
       <c r="D108" t="n">
-        <v>107.6724645</v>
+        <v>107.48289419</v>
       </c>
       <c r="E108" t="n">
-        <v>133.04773199</v>
+        <v>125.02161833</v>
       </c>
       <c r="F108" t="n">
-        <v>104.41764359</v>
+        <v>104.46273903</v>
       </c>
       <c r="G108" t="n">
-        <v>118.14970976</v>
+        <v>115.4173336</v>
       </c>
       <c r="H108" t="n">
-        <v>110.79084465</v>
+        <v>109.59352324</v>
       </c>
       <c r="I108" t="n">
-        <v>115.35630001</v>
+        <v>110.95843527</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>2008年9月</t>
+          <t>2008-12</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>114.58553707</v>
+        <v>113.81690748</v>
       </c>
       <c r="C109" t="inlineStr"/>
       <c r="D109" t="n">
-        <v>107.67665624</v>
+        <v>107.24327144</v>
       </c>
       <c r="E109" t="n">
-        <v>130.02544096</v>
+        <v>122.57444418</v>
       </c>
       <c r="F109" t="n">
-        <v>104.56581272</v>
+        <v>104.27751437</v>
       </c>
       <c r="G109" t="n">
-        <v>117.21883297</v>
+        <v>114.4585138</v>
       </c>
       <c r="H109" t="n">
-        <v>110.62049398</v>
+        <v>108.92287643</v>
       </c>
       <c r="I109" t="n">
-        <v>113.69437239</v>
+        <v>110.46761813</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>2009年10月</t>
+          <t>2009-01</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>102.30183711</v>
+        <v>111.68799815</v>
       </c>
       <c r="C110" t="inlineStr"/>
       <c r="D110" t="n">
-        <v>105.2448432</v>
+        <v>104.13711879</v>
       </c>
       <c r="E110" t="n">
-        <v>90.29958175</v>
+        <v>97.75068123</v>
       </c>
       <c r="F110" t="n">
-        <v>100.83257766</v>
+        <v>101.52368494</v>
       </c>
       <c r="G110" t="n">
-        <v>100.42850644</v>
+        <v>104.73873607</v>
       </c>
       <c r="H110" t="n">
-        <v>109.80511728</v>
+        <v>99.32969989999999</v>
       </c>
       <c r="I110" t="n">
-        <v>112.19755972</v>
+        <v>119.42538718</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>2009年11月</t>
+          <t>2009-02</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>102.4250684</v>
+        <v>107.28628478</v>
       </c>
       <c r="C111" t="inlineStr"/>
       <c r="D111" t="n">
-        <v>105.40678157</v>
+        <v>104.33743772</v>
       </c>
       <c r="E111" t="n">
-        <v>90.94201316</v>
+        <v>94.70843398</v>
       </c>
       <c r="F111" t="n">
-        <v>100.99344222</v>
+        <v>99.41379336</v>
       </c>
       <c r="G111" t="n">
-        <v>100.65263444</v>
+        <v>101.45569568</v>
       </c>
       <c r="H111" t="n">
-        <v>109.3544679</v>
+        <v>97.03031075</v>
       </c>
       <c r="I111" t="n">
-        <v>113.12905349</v>
+        <v>102.705687</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>2009年12月</t>
+          <t>2009-03</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>102.7033851</v>
+        <v>106.97524398</v>
       </c>
       <c r="C112" t="inlineStr"/>
       <c r="D112" t="n">
-        <v>105.66009162</v>
+        <v>104.73018941</v>
       </c>
       <c r="E112" t="n">
-        <v>91.50630821999999</v>
+        <v>93.22182230999999</v>
       </c>
       <c r="F112" t="n">
-        <v>101.34577727</v>
+        <v>100.33678273</v>
       </c>
       <c r="G112" t="n">
-        <v>101.02458916</v>
+        <v>100.89638867</v>
       </c>
       <c r="H112" t="n">
-        <v>108.98522027</v>
+        <v>97.84876971</v>
       </c>
       <c r="I112" t="n">
-        <v>115.00196018</v>
+        <v>103.60454976</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>2009年1月</t>
+          <t>2009-04</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>111.68799815</v>
+        <v>106.0997297</v>
       </c>
       <c r="C113" t="inlineStr"/>
       <c r="D113" t="n">
-        <v>104.13711879</v>
+        <v>104.9311835</v>
       </c>
       <c r="E113" t="n">
-        <v>97.75068123</v>
+        <v>91.66100425</v>
       </c>
       <c r="F113" t="n">
-        <v>101.52368494</v>
+        <v>101.51147992</v>
       </c>
       <c r="G113" t="n">
-        <v>104.73873607</v>
+        <v>100.43160634</v>
       </c>
       <c r="H113" t="n">
-        <v>99.32969989999999</v>
+        <v>98.47280524</v>
       </c>
       <c r="I113" t="n">
-        <v>119.42538718</v>
+        <v>105.07753076</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>2009年2月</t>
+          <t>2009-05</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>107.28628478</v>
+        <v>105.08459337</v>
       </c>
       <c r="C114" t="inlineStr"/>
       <c r="D114" t="n">
-        <v>104.33743772</v>
+        <v>104.97605492</v>
       </c>
       <c r="E114" t="n">
-        <v>94.70843398</v>
+        <v>90.35963716000001</v>
       </c>
       <c r="F114" t="n">
-        <v>99.41379336</v>
+        <v>101.8153162</v>
       </c>
       <c r="G114" t="n">
-        <v>101.45569568</v>
+        <v>100.31509822</v>
       </c>
       <c r="H114" t="n">
-        <v>97.03031075</v>
+        <v>101.43950885</v>
       </c>
       <c r="I114" t="n">
-        <v>102.705687</v>
+        <v>107.76095941</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>2009年3月</t>
+          <t>2009-06</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>106.97524398</v>
+        <v>104.12740026</v>
       </c>
       <c r="C115" t="inlineStr"/>
       <c r="D115" t="n">
-        <v>104.73018941</v>
+        <v>105.02051446</v>
       </c>
       <c r="E115" t="n">
-        <v>93.22182230999999</v>
+        <v>89.48245369</v>
       </c>
       <c r="F115" t="n">
-        <v>100.33678273</v>
+        <v>101.53750985</v>
       </c>
       <c r="G115" t="n">
-        <v>100.89638867</v>
+        <v>100.16402014</v>
       </c>
       <c r="H115" t="n">
-        <v>97.84876971</v>
+        <v>104.30510653</v>
       </c>
       <c r="I115" t="n">
-        <v>103.60454976</v>
+        <v>109.03363546</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>2009年4月</t>
+          <t>2009-07</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>106.0997297</v>
+        <v>103.29768578</v>
       </c>
       <c r="C116" t="inlineStr"/>
       <c r="D116" t="n">
-        <v>104.9311835</v>
+        <v>105.06412791</v>
       </c>
       <c r="E116" t="n">
-        <v>91.66100425</v>
+        <v>89.1259173</v>
       </c>
       <c r="F116" t="n">
-        <v>101.51147992</v>
+        <v>101.10418624</v>
       </c>
       <c r="G116" t="n">
-        <v>100.43160634</v>
+        <v>100.02862726</v>
       </c>
       <c r="H116" t="n">
-        <v>98.47280524</v>
+        <v>106.93508623</v>
       </c>
       <c r="I116" t="n">
-        <v>105.07753076</v>
+        <v>109.05167719</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>2009年5月</t>
+          <t>2009-08</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>105.08459337</v>
+        <v>102.76181588</v>
       </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="n">
-        <v>104.97605492</v>
+        <v>105.09354701</v>
       </c>
       <c r="E117" t="n">
-        <v>90.35963716000001</v>
+        <v>89.29220577</v>
       </c>
       <c r="F117" t="n">
-        <v>101.8153162</v>
+        <v>101.02051016</v>
       </c>
       <c r="G117" t="n">
-        <v>100.31509822</v>
+        <v>100.13818068</v>
       </c>
       <c r="H117" t="n">
-        <v>101.43950885</v>
+        <v>108.74019968</v>
       </c>
       <c r="I117" t="n">
-        <v>107.76095941</v>
+        <v>110.45173596</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>2009年6月</t>
+          <t>2009-09</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>104.12740026</v>
+        <v>102.36362618</v>
       </c>
       <c r="C118" t="inlineStr"/>
       <c r="D118" t="n">
-        <v>105.02051446</v>
+        <v>105.14470532</v>
       </c>
       <c r="E118" t="n">
-        <v>89.48245369</v>
+        <v>89.71885927</v>
       </c>
       <c r="F118" t="n">
-        <v>101.53750985</v>
+        <v>100.85097606</v>
       </c>
       <c r="G118" t="n">
-        <v>100.16402014</v>
+        <v>100.3074218</v>
       </c>
       <c r="H118" t="n">
-        <v>104.30510653</v>
+        <v>109.60057926</v>
       </c>
       <c r="I118" t="n">
-        <v>109.03363546</v>
+        <v>111.97036718</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>2009年7月</t>
+          <t>2009-10</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>103.29768578</v>
+        <v>102.30183711</v>
       </c>
       <c r="C119" t="inlineStr"/>
       <c r="D119" t="n">
-        <v>105.06412791</v>
+        <v>105.2448432</v>
       </c>
       <c r="E119" t="n">
-        <v>89.1259173</v>
+        <v>90.29958175</v>
       </c>
       <c r="F119" t="n">
-        <v>101.10418624</v>
+        <v>100.83257766</v>
       </c>
       <c r="G119" t="n">
-        <v>100.02862726</v>
+        <v>100.42850644</v>
       </c>
       <c r="H119" t="n">
-        <v>106.93508623</v>
+        <v>109.80511728</v>
       </c>
       <c r="I119" t="n">
-        <v>109.05167719</v>
+        <v>112.19755972</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>2009年8月</t>
+          <t>2009-11</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>102.76181588</v>
+        <v>102.4250684</v>
       </c>
       <c r="C120" t="inlineStr"/>
       <c r="D120" t="n">
-        <v>105.09354701</v>
+        <v>105.40678157</v>
       </c>
       <c r="E120" t="n">
-        <v>89.29220577</v>
+        <v>90.94201316</v>
       </c>
       <c r="F120" t="n">
-        <v>101.02051016</v>
+        <v>100.99344222</v>
       </c>
       <c r="G120" t="n">
-        <v>100.13818068</v>
+        <v>100.65263444</v>
       </c>
       <c r="H120" t="n">
-        <v>108.74019968</v>
+        <v>109.3544679</v>
       </c>
       <c r="I120" t="n">
-        <v>110.45173596</v>
+        <v>113.12905349</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>2009年9月</t>
+          <t>2009-12</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>102.36362618</v>
+        <v>102.7033851</v>
       </c>
       <c r="C121" t="inlineStr"/>
       <c r="D121" t="n">
-        <v>105.14470532</v>
+        <v>105.66009162</v>
       </c>
       <c r="E121" t="n">
-        <v>89.71885927</v>
+        <v>91.50630821999999</v>
       </c>
       <c r="F121" t="n">
-        <v>100.85097606</v>
+        <v>101.34577727</v>
       </c>
       <c r="G121" t="n">
-        <v>100.3074218</v>
+        <v>101.02458916</v>
       </c>
       <c r="H121" t="n">
-        <v>109.60057926</v>
+        <v>108.98522027</v>
       </c>
       <c r="I121" t="n">
-        <v>111.97036718</v>
+        <v>115.00196018</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>2010年10月</t>
+          <t>2010-01</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>107.76846905</v>
+        <v>104.01046562</v>
       </c>
       <c r="C122" t="inlineStr"/>
       <c r="D122" t="n">
-        <v>110.86725808</v>
+        <v>109.5645786</v>
       </c>
       <c r="E122" t="n">
-        <v>101.23271892</v>
+        <v>96.62992829</v>
       </c>
       <c r="F122" t="n">
-        <v>106.25637253</v>
+        <v>106.14217172</v>
       </c>
       <c r="G122" t="n">
-        <v>106.45120973</v>
+        <v>103.67021581</v>
       </c>
       <c r="H122" t="n">
-        <v>111.83365059</v>
+        <v>109.24128741</v>
       </c>
       <c r="I122" t="n">
-        <v>120.49764354</v>
+        <v>116.77134385</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>2010年11月</t>
+          <t>2010-02</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>108.1885706</v>
+        <v>106.42873617</v>
       </c>
       <c r="C123" t="inlineStr"/>
       <c r="D123" t="n">
-        <v>111.16378073</v>
+        <v>109.52108147</v>
       </c>
       <c r="E123" t="n">
-        <v>101.96635929</v>
+        <v>97.45370689000001</v>
       </c>
       <c r="F123" t="n">
-        <v>107.34903062</v>
+        <v>107.27425082</v>
       </c>
       <c r="G123" t="n">
-        <v>106.9170992</v>
+        <v>104.94190065</v>
       </c>
       <c r="H123" t="n">
-        <v>113.21613378</v>
+        <v>114.13303828</v>
       </c>
       <c r="I123" t="n">
-        <v>120.51437628</v>
+        <v>120.74148509</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>2010年12月</t>
+          <t>2010-03</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>108.4575846</v>
+        <v>106.40688493</v>
       </c>
       <c r="C124" t="inlineStr"/>
       <c r="D124" t="n">
-        <v>111.5054966</v>
+        <v>109.37766427</v>
       </c>
       <c r="E124" t="n">
-        <v>102.63858264</v>
+        <v>97.52435925</v>
       </c>
       <c r="F124" t="n">
-        <v>108.37449021</v>
+        <v>106.68388658</v>
       </c>
       <c r="G124" t="n">
-        <v>107.12827618</v>
+        <v>105.01623263</v>
       </c>
       <c r="H124" t="n">
-        <v>114.98704859</v>
+        <v>115.40459684</v>
       </c>
       <c r="I124" t="n">
-        <v>117.84628325</v>
+        <v>119.64276728</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>2010年1月</t>
+          <t>2010-04</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>104.01046562</v>
+        <v>106.2455717</v>
       </c>
       <c r="C125" t="inlineStr"/>
       <c r="D125" t="n">
-        <v>109.5645786</v>
+        <v>109.67731391</v>
       </c>
       <c r="E125" t="n">
-        <v>96.62992829</v>
+        <v>97.64275089</v>
       </c>
       <c r="F125" t="n">
-        <v>106.14217172</v>
+        <v>105.41308777</v>
       </c>
       <c r="G125" t="n">
-        <v>103.67021581</v>
+        <v>105.23844892</v>
       </c>
       <c r="H125" t="n">
-        <v>109.24128741</v>
+        <v>115.44787773</v>
       </c>
       <c r="I125" t="n">
-        <v>116.77134385</v>
+        <v>120.7127677</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>2010年2月</t>
+          <t>2010-05</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>106.42873617</v>
+        <v>106.17743308</v>
       </c>
       <c r="C126" t="inlineStr"/>
       <c r="D126" t="n">
-        <v>109.52108147</v>
+        <v>109.99804654</v>
       </c>
       <c r="E126" t="n">
-        <v>97.45370689000001</v>
+        <v>98.16328768</v>
       </c>
       <c r="F126" t="n">
-        <v>107.27425082</v>
+        <v>104.32560103</v>
       </c>
       <c r="G126" t="n">
-        <v>104.94190065</v>
+        <v>105.38044347</v>
       </c>
       <c r="H126" t="n">
-        <v>114.13303828</v>
+        <v>114.58489551</v>
       </c>
       <c r="I126" t="n">
-        <v>120.74148509</v>
+        <v>120.6559156</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>2010年3月</t>
+          <t>2010-06</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>106.40688493</v>
+        <v>106.29500588</v>
       </c>
       <c r="C127" t="inlineStr"/>
       <c r="D127" t="n">
-        <v>109.37766427</v>
+        <v>110.2514854</v>
       </c>
       <c r="E127" t="n">
-        <v>97.52435925</v>
+        <v>98.70086147000001</v>
       </c>
       <c r="F127" t="n">
-        <v>106.68388658</v>
+        <v>103.960676</v>
       </c>
       <c r="G127" t="n">
-        <v>105.01623263</v>
+        <v>105.40675131</v>
       </c>
       <c r="H127" t="n">
-        <v>115.40459684</v>
+        <v>113.48191873</v>
       </c>
       <c r="I127" t="n">
-        <v>119.64276728</v>
+        <v>119.60594568</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>2010年4月</t>
+          <t>2010-07</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>106.2455717</v>
+        <v>106.52971098</v>
       </c>
       <c r="C128" t="inlineStr"/>
       <c r="D128" t="n">
-        <v>109.67731391</v>
+        <v>110.43955862</v>
       </c>
       <c r="E128" t="n">
-        <v>97.64275089</v>
+        <v>99.4079885</v>
       </c>
       <c r="F128" t="n">
-        <v>105.41308777</v>
+        <v>104.4666516</v>
       </c>
       <c r="G128" t="n">
-        <v>105.23844892</v>
+        <v>105.59374181</v>
       </c>
       <c r="H128" t="n">
-        <v>115.44787773</v>
+        <v>111.95147603</v>
       </c>
       <c r="I128" t="n">
-        <v>120.7127677</v>
+        <v>119.88533158</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>2010年5月</t>
+          <t>2010-08</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>106.17743308</v>
+        <v>106.8301103</v>
       </c>
       <c r="C129" t="inlineStr"/>
       <c r="D129" t="n">
-        <v>109.99804654</v>
+        <v>110.60009407</v>
       </c>
       <c r="E129" t="n">
-        <v>98.16328768</v>
+        <v>100.12333883</v>
       </c>
       <c r="F129" t="n">
-        <v>104.32560103</v>
+        <v>105.1692679</v>
       </c>
       <c r="G129" t="n">
-        <v>105.38044347</v>
+        <v>105.81523192</v>
       </c>
       <c r="H129" t="n">
-        <v>114.58489551</v>
+        <v>111.22098318</v>
       </c>
       <c r="I129" t="n">
-        <v>120.6559156</v>
+        <v>119.75576149</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>2010年6月</t>
+          <t>2010-09</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>106.29500588</v>
+        <v>107.34092101</v>
       </c>
       <c r="C130" t="inlineStr"/>
       <c r="D130" t="n">
-        <v>110.2514854</v>
+        <v>110.73904617</v>
       </c>
       <c r="E130" t="n">
-        <v>98.70086147000001</v>
+        <v>100.67172759</v>
       </c>
       <c r="F130" t="n">
-        <v>103.960676</v>
+        <v>105.74498209</v>
       </c>
       <c r="G130" t="n">
-        <v>105.40675131</v>
+        <v>106.05532124</v>
       </c>
       <c r="H130" t="n">
-        <v>113.48191873</v>
+        <v>111.27378518</v>
       </c>
       <c r="I130" t="n">
-        <v>119.60594568</v>
+        <v>119.48781065</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>2010年7月</t>
+          <t>2010-10</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>106.52971098</v>
+        <v>107.76846905</v>
       </c>
       <c r="C131" t="inlineStr"/>
       <c r="D131" t="n">
-        <v>110.43955862</v>
+        <v>110.86725808</v>
       </c>
       <c r="E131" t="n">
-        <v>99.4079885</v>
+        <v>101.23271892</v>
       </c>
       <c r="F131" t="n">
-        <v>104.4666516</v>
+        <v>106.25637253</v>
       </c>
       <c r="G131" t="n">
-        <v>105.59374181</v>
+        <v>106.45120973</v>
       </c>
       <c r="H131" t="n">
-        <v>111.95147603</v>
+        <v>111.83365059</v>
       </c>
       <c r="I131" t="n">
-        <v>119.88533158</v>
+        <v>120.49764354</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>2010年8月</t>
+          <t>2010-11</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>106.8301103</v>
+        <v>108.1885706</v>
       </c>
       <c r="C132" t="inlineStr"/>
       <c r="D132" t="n">
-        <v>110.60009407</v>
+        <v>111.16378073</v>
       </c>
       <c r="E132" t="n">
-        <v>100.12333883</v>
+        <v>101.96635929</v>
       </c>
       <c r="F132" t="n">
-        <v>105.1692679</v>
+        <v>107.34903062</v>
       </c>
       <c r="G132" t="n">
-        <v>105.81523192</v>
+        <v>106.9170992</v>
       </c>
       <c r="H132" t="n">
-        <v>111.22098318</v>
+        <v>113.21613378</v>
       </c>
       <c r="I132" t="n">
-        <v>119.75576149</v>
+        <v>120.51437628</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>2010年9月</t>
+          <t>2010-12</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>107.34092101</v>
+        <v>108.4575846</v>
       </c>
       <c r="C133" t="inlineStr"/>
       <c r="D133" t="n">
-        <v>110.73904617</v>
+        <v>111.5054966</v>
       </c>
       <c r="E133" t="n">
-        <v>100.67172759</v>
+        <v>102.63858264</v>
       </c>
       <c r="F133" t="n">
-        <v>105.74498209</v>
+        <v>108.37449021</v>
       </c>
       <c r="G133" t="n">
-        <v>106.05532124</v>
+        <v>107.12827618</v>
       </c>
       <c r="H133" t="n">
-        <v>111.27378518</v>
+        <v>114.98704859</v>
       </c>
       <c r="I133" t="n">
-        <v>119.48781065</v>
+        <v>117.84628325</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>2011年10月</t>
+          <t>2011-01</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>112.68445834</v>
+        <v>111.33213539</v>
       </c>
       <c r="C134" t="inlineStr"/>
       <c r="D134" t="n">
-        <v>113.07009956</v>
+        <v>114.80627261</v>
       </c>
       <c r="E134" t="n">
-        <v>122.98609</v>
+        <v>110.45958713</v>
       </c>
       <c r="F134" t="n">
-        <v>117.26158103</v>
+        <v>119.52390121</v>
       </c>
       <c r="G134" t="n">
-        <v>112.12945591</v>
+        <v>110.21128929</v>
       </c>
       <c r="H134" t="n">
-        <v>118.27771945</v>
+        <v>135.35029523</v>
       </c>
       <c r="I134" t="n">
-        <v>100.20506591</v>
+        <v>101.22423566</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>2011年11月</t>
+          <t>2011-02</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>112.51119748</v>
+        <v>110.22629163</v>
       </c>
       <c r="C135" t="inlineStr"/>
       <c r="D135" t="n">
-        <v>112.70974819</v>
+        <v>114.45926378</v>
       </c>
       <c r="E135" t="n">
-        <v>122.6973841</v>
+        <v>111.50240756</v>
       </c>
       <c r="F135" t="n">
-        <v>115.99373585</v>
+        <v>119.20787885</v>
       </c>
       <c r="G135" t="n">
-        <v>111.81884236</v>
+        <v>110.40211965</v>
       </c>
       <c r="H135" t="n">
-        <v>117.56021538</v>
+        <v>132.70744135</v>
       </c>
       <c r="I135" t="n">
-        <v>99.1551608</v>
+        <v>103.27141901</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>2011年12月</t>
+          <t>2011-03</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>112.28356946</v>
+        <v>110.4</v>
       </c>
       <c r="C136" t="inlineStr"/>
       <c r="D136" t="n">
-        <v>112.22245689</v>
+        <v>114.6</v>
       </c>
       <c r="E136" t="n">
-        <v>122.18709543</v>
+        <v>113.2</v>
       </c>
       <c r="F136" t="n">
-        <v>114.64131421</v>
+        <v>117.5</v>
       </c>
       <c r="G136" t="n">
-        <v>111.59741069</v>
+        <v>110.8</v>
       </c>
       <c r="H136" t="n">
-        <v>116.29166354</v>
+        <v>131.6</v>
       </c>
       <c r="I136" t="n">
-        <v>100.15722342</v>
+        <v>103.4</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>2011年1月</t>
+          <t>2011-04</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>111.33213539</v>
+        <v>110.9</v>
       </c>
       <c r="C137" t="inlineStr"/>
       <c r="D137" t="n">
-        <v>114.80627261</v>
+        <v>114.3</v>
       </c>
       <c r="E137" t="n">
-        <v>110.45958713</v>
+        <v>114.9</v>
       </c>
       <c r="F137" t="n">
-        <v>119.52390121</v>
+        <v>116.7</v>
       </c>
       <c r="G137" t="n">
-        <v>110.21128929</v>
+        <v>110.9</v>
       </c>
       <c r="H137" t="n">
-        <v>135.35029523</v>
+        <v>131.2</v>
       </c>
       <c r="I137" t="n">
-        <v>101.22423566</v>
+        <v>100.7</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>2011年2月</t>
+          <t>2011-05</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>110.22629163</v>
+        <v>111.2</v>
       </c>
       <c r="C138" t="inlineStr"/>
       <c r="D138" t="n">
-        <v>114.45926378</v>
+        <v>114</v>
       </c>
       <c r="E138" t="n">
-        <v>111.50240756</v>
+        <v>116.6</v>
       </c>
       <c r="F138" t="n">
-        <v>119.20787885</v>
+        <v>117.2</v>
       </c>
       <c r="G138" t="n">
-        <v>110.40211965</v>
+        <v>111</v>
       </c>
       <c r="H138" t="n">
-        <v>132.70744135</v>
+        <v>128.9</v>
       </c>
       <c r="I138" t="n">
-        <v>103.27141901</v>
+        <v>99.2</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>2011年3月</t>
+          <t>2011-06</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>110.4</v>
+        <v>111.7</v>
       </c>
       <c r="C139" t="inlineStr"/>
       <c r="D139" t="n">
-        <v>114.6</v>
+        <v>113.7</v>
       </c>
       <c r="E139" t="n">
-        <v>113.2</v>
+        <v>118.9</v>
       </c>
       <c r="F139" t="n">
-        <v>117.5</v>
+        <v>118.1</v>
       </c>
       <c r="G139" t="n">
-        <v>110.8</v>
+        <v>111.5</v>
       </c>
       <c r="H139" t="n">
-        <v>131.6</v>
+        <v>125.6</v>
       </c>
       <c r="I139" t="n">
-        <v>103.4</v>
+        <v>100.3</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>2011年4月</t>
+          <t>2011-07</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>110.9</v>
+        <v>112.21066794</v>
       </c>
       <c r="C140" t="inlineStr"/>
       <c r="D140" t="n">
-        <v>114.3</v>
+        <v>113.52279021</v>
       </c>
       <c r="E140" t="n">
-        <v>114.9</v>
+        <v>120.84840848</v>
       </c>
       <c r="F140" t="n">
-        <v>116.7</v>
+        <v>118.46254006</v>
       </c>
       <c r="G140" t="n">
-        <v>110.9</v>
+        <v>111.89240295</v>
       </c>
       <c r="H140" t="n">
-        <v>131.2</v>
+        <v>122.76538389</v>
       </c>
       <c r="I140" t="n">
-        <v>100.7</v>
+        <v>101.16158485</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>2011年5月</t>
+          <t>2011-08</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>111.2</v>
+        <v>112.53168319</v>
       </c>
       <c r="C141" t="inlineStr"/>
       <c r="D141" t="n">
-        <v>114</v>
+        <v>113.36814785</v>
       </c>
       <c r="E141" t="n">
-        <v>116.6</v>
+        <v>121.87703633</v>
       </c>
       <c r="F141" t="n">
-        <v>117.2</v>
+        <v>118.23733182</v>
       </c>
       <c r="G141" t="n">
-        <v>111</v>
+        <v>112.04800931</v>
       </c>
       <c r="H141" t="n">
-        <v>128.9</v>
+        <v>120.58975789</v>
       </c>
       <c r="I141" t="n">
-        <v>99.2</v>
+        <v>101.01413438</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>2011年6月</t>
+          <t>2011-09</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>111.7</v>
+        <v>112.71350714</v>
       </c>
       <c r="C142" t="inlineStr"/>
       <c r="D142" t="n">
-        <v>113.7</v>
+        <v>113.2179822</v>
       </c>
       <c r="E142" t="n">
-        <v>118.9</v>
+        <v>122.60537547</v>
       </c>
       <c r="F142" t="n">
-        <v>118.1</v>
+        <v>117.77583303</v>
       </c>
       <c r="G142" t="n">
-        <v>111.5</v>
+        <v>112.17368321</v>
       </c>
       <c r="H142" t="n">
-        <v>125.6</v>
+        <v>119.05954842</v>
       </c>
       <c r="I142" t="n">
-        <v>100.3</v>
+        <v>101.08166341</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>2011年7月</t>
+          <t>2011-10</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>112.21066794</v>
+        <v>112.68445834</v>
       </c>
       <c r="C143" t="inlineStr"/>
       <c r="D143" t="n">
-        <v>113.52279021</v>
+        <v>113.07009956</v>
       </c>
       <c r="E143" t="n">
-        <v>120.84840848</v>
+        <v>122.98609</v>
       </c>
       <c r="F143" t="n">
-        <v>118.46254006</v>
+        <v>117.26158103</v>
       </c>
       <c r="G143" t="n">
-        <v>111.89240295</v>
+        <v>112.12945591</v>
       </c>
       <c r="H143" t="n">
-        <v>122.76538389</v>
+        <v>118.27771945</v>
       </c>
       <c r="I143" t="n">
-        <v>101.16158485</v>
+        <v>100.20506591</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>2011年8月</t>
+          <t>2011-11</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>112.53168319</v>
+        <v>112.51119748</v>
       </c>
       <c r="C144" t="inlineStr"/>
       <c r="D144" t="n">
-        <v>113.36814785</v>
+        <v>112.70974819</v>
       </c>
       <c r="E144" t="n">
-        <v>121.87703633</v>
+        <v>122.6973841</v>
       </c>
       <c r="F144" t="n">
-        <v>118.23733182</v>
+        <v>115.99373585</v>
       </c>
       <c r="G144" t="n">
-        <v>112.04800931</v>
+        <v>111.81884236</v>
       </c>
       <c r="H144" t="n">
-        <v>120.58975789</v>
+        <v>117.56021538</v>
       </c>
       <c r="I144" t="n">
-        <v>101.01413438</v>
+        <v>99.1551608</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>2011年9月</t>
+          <t>2011-12</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>112.71350714</v>
+        <v>112.28356946</v>
       </c>
       <c r="C145" t="inlineStr"/>
       <c r="D145" t="n">
-        <v>113.2179822</v>
+        <v>112.22245689</v>
       </c>
       <c r="E145" t="n">
-        <v>122.60537547</v>
+        <v>122.18709543</v>
       </c>
       <c r="F145" t="n">
-        <v>117.77583303</v>
+        <v>114.64131421</v>
       </c>
       <c r="G145" t="n">
-        <v>112.17368321</v>
+        <v>111.59741069</v>
       </c>
       <c r="H145" t="n">
-        <v>119.05954842</v>
+        <v>116.29166354</v>
       </c>
       <c r="I145" t="n">
-        <v>101.08166341</v>
+        <v>100.15722342</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>2012年10月</t>
+          <t>2012-01</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>108.22384386</v>
+        <v>113.46606409</v>
       </c>
       <c r="C146" t="inlineStr"/>
       <c r="D146" t="n">
-        <v>104.16491619</v>
+        <v>106.30530087</v>
       </c>
       <c r="E146" t="n">
-        <v>103.36693625</v>
+        <v>119.28528237</v>
       </c>
       <c r="F146" t="n">
-        <v>95.54964098000001</v>
+        <v>98.40679227</v>
       </c>
       <c r="G146" t="n">
-        <v>105.43560694</v>
+        <v>110.72719545</v>
       </c>
       <c r="H146" t="n">
-        <v>99.55139921999999</v>
+        <v>102.09491715</v>
       </c>
       <c r="I146" t="n">
-        <v>116.21463887</v>
+        <v>123.25854231</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>2012年11月</t>
+          <t>2012-02</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>107.88819746</v>
+        <v>110.41658614</v>
       </c>
       <c r="C147" t="inlineStr"/>
       <c r="D147" t="n">
-        <v>104.13353496</v>
+        <v>105.93640413</v>
       </c>
       <c r="E147" t="n">
-        <v>102.9323135</v>
+        <v>116.40127083</v>
       </c>
       <c r="F147" t="n">
-        <v>96.28253303</v>
+        <v>93.96628043</v>
       </c>
       <c r="G147" t="n">
-        <v>105.22409959</v>
+        <v>108.53653723</v>
       </c>
       <c r="H147" t="n">
-        <v>99.24146094</v>
+        <v>97.81221506</v>
       </c>
       <c r="I147" t="n">
-        <v>115.81057385</v>
+        <v>114.33253632</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>2012年12月</t>
+          <t>2012-03</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>107.7001887</v>
+        <v>110.74986425</v>
       </c>
       <c r="C148" t="inlineStr"/>
       <c r="D148" t="n">
-        <v>104.1252209</v>
+        <v>105.4859109</v>
       </c>
       <c r="E148" t="n">
-        <v>102.82759754</v>
+        <v>114.89161313</v>
       </c>
       <c r="F148" t="n">
-        <v>97.29947815</v>
+        <v>94.18474243999999</v>
       </c>
       <c r="G148" t="n">
-        <v>105.1402898</v>
+        <v>108.28941752</v>
       </c>
       <c r="H148" t="n">
-        <v>98.79727272</v>
+        <v>96.41483415</v>
       </c>
       <c r="I148" t="n">
-        <v>115.67729224</v>
+        <v>116.47252902</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>2012年1月</t>
+          <t>2012-04</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>113.46606409</v>
+        <v>110.85374109</v>
       </c>
       <c r="C149" t="inlineStr"/>
       <c r="D149" t="n">
-        <v>106.30530087</v>
+        <v>105.12513058</v>
       </c>
       <c r="E149" t="n">
-        <v>119.28528237</v>
+        <v>113.39539777</v>
       </c>
       <c r="F149" t="n">
-        <v>98.40679227</v>
+        <v>94.2030915</v>
       </c>
       <c r="G149" t="n">
-        <v>110.72719545</v>
+        <v>108.0283337</v>
       </c>
       <c r="H149" t="n">
-        <v>102.09491715</v>
+        <v>94.79901578</v>
       </c>
       <c r="I149" t="n">
-        <v>123.25854231</v>
+        <v>119.07614551</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>2012年2月</t>
+          <t>2012-05</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>110.41658614</v>
+        <v>110.89714431</v>
       </c>
       <c r="C150" t="inlineStr"/>
       <c r="D150" t="n">
-        <v>105.93640413</v>
+        <v>104.82789657</v>
       </c>
       <c r="E150" t="n">
-        <v>116.40127083</v>
+        <v>111.88548678</v>
       </c>
       <c r="F150" t="n">
-        <v>93.96628043</v>
+        <v>93.45842785000001</v>
       </c>
       <c r="G150" t="n">
-        <v>108.53653723</v>
+        <v>107.78096281</v>
       </c>
       <c r="H150" t="n">
-        <v>97.81221506</v>
+        <v>94.39547491</v>
       </c>
       <c r="I150" t="n">
-        <v>114.33253632</v>
+        <v>121.14614647</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>2012年3月</t>
+          <t>2012-06</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>110.74986425</v>
+        <v>110.40677584</v>
       </c>
       <c r="C151" t="inlineStr"/>
       <c r="D151" t="n">
-        <v>105.4859109</v>
+        <v>104.59121109</v>
       </c>
       <c r="E151" t="n">
-        <v>114.89161313</v>
+        <v>109.66318346</v>
       </c>
       <c r="F151" t="n">
-        <v>94.18474243999999</v>
+        <v>93.99763612</v>
       </c>
       <c r="G151" t="n">
-        <v>108.28941752</v>
+        <v>107.17393652</v>
       </c>
       <c r="H151" t="n">
-        <v>96.41483415</v>
+        <v>95.31473818000001</v>
       </c>
       <c r="I151" t="n">
-        <v>116.47252902</v>
+        <v>119.74943628</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>2012年4月</t>
+          <t>2012-07</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>110.85374109</v>
+        <v>109.79551981</v>
       </c>
       <c r="C152" t="inlineStr"/>
       <c r="D152" t="n">
-        <v>105.12513058</v>
+        <v>104.38689345</v>
       </c>
       <c r="E152" t="n">
-        <v>113.39539777</v>
+        <v>107.35333393</v>
       </c>
       <c r="F152" t="n">
-        <v>94.2030915</v>
+        <v>93.92218507</v>
       </c>
       <c r="G152" t="n">
-        <v>108.0283337</v>
+        <v>106.55346626</v>
       </c>
       <c r="H152" t="n">
-        <v>94.79901578</v>
+        <v>96.93726141</v>
       </c>
       <c r="I152" t="n">
-        <v>119.07614551</v>
+        <v>118.12333928</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>2012年5月</t>
+          <t>2012-08</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>110.89714431</v>
+        <v>109.22943745</v>
       </c>
       <c r="C153" t="inlineStr"/>
       <c r="D153" t="n">
-        <v>104.82789657</v>
+        <v>104.24633236</v>
       </c>
       <c r="E153" t="n">
-        <v>111.88548678</v>
+        <v>105.57049267</v>
       </c>
       <c r="F153" t="n">
-        <v>93.45842785000001</v>
+        <v>94.31337692</v>
       </c>
       <c r="G153" t="n">
-        <v>107.78096281</v>
+        <v>106.20532038</v>
       </c>
       <c r="H153" t="n">
-        <v>94.39547491</v>
+        <v>98.23816906</v>
       </c>
       <c r="I153" t="n">
-        <v>121.14614647</v>
+        <v>118.71508512</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>2012年6月</t>
+          <t>2012-09</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>110.40677584</v>
+        <v>108.66239015</v>
       </c>
       <c r="C154" t="inlineStr"/>
       <c r="D154" t="n">
-        <v>104.59121109</v>
+        <v>104.19595764</v>
       </c>
       <c r="E154" t="n">
-        <v>109.66318346</v>
+        <v>104.26336803</v>
       </c>
       <c r="F154" t="n">
-        <v>93.99763612</v>
+        <v>95.02770369</v>
       </c>
       <c r="G154" t="n">
-        <v>107.17393652</v>
+        <v>105.81976591</v>
       </c>
       <c r="H154" t="n">
-        <v>95.31473818000001</v>
+        <v>99.10029761</v>
       </c>
       <c r="I154" t="n">
-        <v>119.74943628</v>
+        <v>117.82357901</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>2012年7月</t>
+          <t>2012-10</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>109.79551981</v>
+        <v>108.22384386</v>
       </c>
       <c r="C155" t="inlineStr"/>
       <c r="D155" t="n">
-        <v>104.38689345</v>
+        <v>104.16491619</v>
       </c>
       <c r="E155" t="n">
-        <v>107.35333393</v>
+        <v>103.36693625</v>
       </c>
       <c r="F155" t="n">
-        <v>93.92218507</v>
+        <v>95.54964098000001</v>
       </c>
       <c r="G155" t="n">
-        <v>106.55346626</v>
+        <v>105.43560694</v>
       </c>
       <c r="H155" t="n">
-        <v>96.93726141</v>
+        <v>99.55139921999999</v>
       </c>
       <c r="I155" t="n">
-        <v>118.12333928</v>
+        <v>116.21463887</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>2012年8月</t>
+          <t>2012-11</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>109.22943745</v>
+        <v>107.88819746</v>
       </c>
       <c r="C156" t="inlineStr"/>
       <c r="D156" t="n">
-        <v>104.24633236</v>
+        <v>104.13353496</v>
       </c>
       <c r="E156" t="n">
-        <v>105.57049267</v>
+        <v>102.9323135</v>
       </c>
       <c r="F156" t="n">
-        <v>94.31337692</v>
+        <v>96.28253303</v>
       </c>
       <c r="G156" t="n">
-        <v>106.20532038</v>
+        <v>105.22409959</v>
       </c>
       <c r="H156" t="n">
-        <v>98.23816906</v>
+        <v>99.24146094</v>
       </c>
       <c r="I156" t="n">
-        <v>118.71508512</v>
+        <v>115.81057385</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>2012年9月</t>
+          <t>2012-12</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>108.66239015</v>
+        <v>107.7001887</v>
       </c>
       <c r="C157" t="inlineStr"/>
       <c r="D157" t="n">
-        <v>104.19595764</v>
+        <v>104.1252209</v>
       </c>
       <c r="E157" t="n">
-        <v>104.26336803</v>
+        <v>102.82759754</v>
       </c>
       <c r="F157" t="n">
-        <v>95.02770369</v>
+        <v>97.29947815</v>
       </c>
       <c r="G157" t="n">
-        <v>105.81976591</v>
+        <v>105.1402898</v>
       </c>
       <c r="H157" t="n">
-        <v>99.10029761</v>
+        <v>98.79727272</v>
       </c>
       <c r="I157" t="n">
-        <v>117.82357901</v>
+        <v>115.67729224</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>2013年10月</t>
+          <t>2013-01</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>103.68646107</v>
+        <v>101.87867676</v>
       </c>
       <c r="C158" t="inlineStr"/>
       <c r="D158" t="n">
-        <v>104.70165163</v>
+        <v>104.53663048</v>
       </c>
       <c r="E158" t="n">
-        <v>104.44948958</v>
+        <v>101.45971263</v>
       </c>
       <c r="F158" t="n">
-        <v>106.62574672</v>
+        <v>110.77863796</v>
       </c>
       <c r="G158" t="n">
-        <v>104.49630552</v>
+        <v>102.72100286</v>
       </c>
       <c r="H158" t="n">
-        <v>105.490786</v>
+        <v>93.08003979</v>
       </c>
       <c r="I158" t="n">
-        <v>106.79525631</v>
+        <v>101.98957053</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>2013年11月</t>
+          <t>2013-02</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>103.95081097</v>
+        <v>104.51880388</v>
       </c>
       <c r="C159" t="inlineStr"/>
       <c r="D159" t="n">
-        <v>104.62098088</v>
+        <v>104.78069352</v>
       </c>
       <c r="E159" t="n">
-        <v>104.53581212</v>
+        <v>103.42839649</v>
       </c>
       <c r="F159" t="n">
-        <v>105.82156352</v>
+        <v>114.87240756</v>
       </c>
       <c r="G159" t="n">
-        <v>104.62601198</v>
+        <v>104.3104558</v>
       </c>
       <c r="H159" t="n">
-        <v>105.89375096</v>
+        <v>98.42619860000001</v>
       </c>
       <c r="I159" t="n">
-        <v>107.97928896</v>
+        <v>105.79683421</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>2013年12月</t>
+          <t>2013-03</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>104.0905248</v>
+        <v>103.31692314</v>
       </c>
       <c r="C160" t="inlineStr"/>
       <c r="D160" t="n">
-        <v>104.54652533</v>
+        <v>104.88124488</v>
       </c>
       <c r="E160" t="n">
-        <v>104.44800907</v>
+        <v>103.34607463</v>
       </c>
       <c r="F160" t="n">
-        <v>104.91881619</v>
+        <v>114.50710128</v>
       </c>
       <c r="G160" t="n">
-        <v>104.57837779</v>
+        <v>103.71010204</v>
       </c>
       <c r="H160" t="n">
-        <v>106.65535925</v>
+        <v>100.58493869</v>
       </c>
       <c r="I160" t="n">
-        <v>107.47500724</v>
+        <v>100.03765544</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>2013年1月</t>
+          <t>2013-04</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>101.87867676</v>
+        <v>102.87003903</v>
       </c>
       <c r="C161" t="inlineStr"/>
       <c r="D161" t="n">
-        <v>104.53663048</v>
+        <v>104.92313913</v>
       </c>
       <c r="E161" t="n">
-        <v>101.45971263</v>
+        <v>103.01570004</v>
       </c>
       <c r="F161" t="n">
-        <v>110.77863796</v>
+        <v>113.9873156</v>
       </c>
       <c r="G161" t="n">
-        <v>102.72100286</v>
+        <v>103.78303671</v>
       </c>
       <c r="H161" t="n">
-        <v>93.08003979</v>
+        <v>101.70024867</v>
       </c>
       <c r="I161" t="n">
-        <v>101.98957053</v>
+        <v>101.40934248</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>2013年2月</t>
+          <t>2013-05</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>104.51880388</v>
+        <v>102.7079936</v>
       </c>
       <c r="C162" t="inlineStr"/>
       <c r="D162" t="n">
-        <v>104.78069352</v>
+        <v>104.94112061</v>
       </c>
       <c r="E162" t="n">
-        <v>103.42839649</v>
+        <v>102.8455685</v>
       </c>
       <c r="F162" t="n">
-        <v>114.87240756</v>
+        <v>113.50529149</v>
       </c>
       <c r="G162" t="n">
-        <v>104.3104558</v>
+        <v>103.64999365</v>
       </c>
       <c r="H162" t="n">
-        <v>98.42619860000001</v>
+        <v>102.55308951</v>
       </c>
       <c r="I162" t="n">
-        <v>105.79683421</v>
+        <v>100.64915221</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>2013年3月</t>
+          <t>2013-06</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>103.31692314</v>
+        <v>102.79526613</v>
       </c>
       <c r="C163" t="inlineStr"/>
       <c r="D163" t="n">
-        <v>104.88124488</v>
+        <v>104.96953681</v>
       </c>
       <c r="E163" t="n">
-        <v>103.34607463</v>
+        <v>103.19056483</v>
       </c>
       <c r="F163" t="n">
-        <v>114.50710128</v>
+        <v>111.15318446</v>
       </c>
       <c r="G163" t="n">
-        <v>103.71010204</v>
+        <v>103.84834483</v>
       </c>
       <c r="H163" t="n">
-        <v>100.58493869</v>
+        <v>103.86316348</v>
       </c>
       <c r="I163" t="n">
-        <v>100.03765544</v>
+        <v>101.79708925</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>2013年4月</t>
+          <t>2013-07</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>102.87003903</v>
+        <v>102.86050412</v>
       </c>
       <c r="C164" t="inlineStr"/>
       <c r="D164" t="n">
-        <v>104.92313913</v>
+        <v>104.98956218</v>
       </c>
       <c r="E164" t="n">
-        <v>103.01570004</v>
+        <v>103.58614931</v>
       </c>
       <c r="F164" t="n">
-        <v>113.9873156</v>
+        <v>109.72962289</v>
       </c>
       <c r="G164" t="n">
-        <v>103.78303671</v>
+        <v>103.99686776</v>
       </c>
       <c r="H164" t="n">
-        <v>101.70024867</v>
+        <v>104.18180524</v>
       </c>
       <c r="I164" t="n">
-        <v>101.40934248</v>
+        <v>102.92863284</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>2013年5月</t>
+          <t>2013-08</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>102.7079936</v>
+        <v>103.04975059</v>
       </c>
       <c r="C165" t="inlineStr"/>
       <c r="D165" t="n">
-        <v>104.94112061</v>
+        <v>104.94494845</v>
       </c>
       <c r="E165" t="n">
-        <v>102.8455685</v>
+        <v>104.0329443</v>
       </c>
       <c r="F165" t="n">
-        <v>113.50529149</v>
+        <v>108.42431142</v>
       </c>
       <c r="G165" t="n">
-        <v>103.64999365</v>
+        <v>104.0644066</v>
       </c>
       <c r="H165" t="n">
-        <v>102.55308951</v>
+        <v>104.4795632</v>
       </c>
       <c r="I165" t="n">
-        <v>100.64915221</v>
+        <v>103.07938726</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>2013年6月</t>
+          <t>2013-09</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>102.79526613</v>
+        <v>103.37184735</v>
       </c>
       <c r="C166" t="inlineStr"/>
       <c r="D166" t="n">
-        <v>104.96953681</v>
+        <v>104.82355435</v>
       </c>
       <c r="E166" t="n">
-        <v>103.19056483</v>
+        <v>104.30827969</v>
       </c>
       <c r="F166" t="n">
-        <v>111.15318446</v>
+        <v>107.52256794</v>
       </c>
       <c r="G166" t="n">
-        <v>103.84834483</v>
+        <v>104.27604755</v>
       </c>
       <c r="H166" t="n">
-        <v>103.86316348</v>
+        <v>105.22748664</v>
       </c>
       <c r="I166" t="n">
-        <v>101.79708925</v>
+        <v>104.62278058</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>2013年7月</t>
+          <t>2013-10</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>102.86050412</v>
+        <v>103.68646107</v>
       </c>
       <c r="C167" t="inlineStr"/>
       <c r="D167" t="n">
-        <v>104.98956218</v>
+        <v>104.70165163</v>
       </c>
       <c r="E167" t="n">
-        <v>103.58614931</v>
+        <v>104.44948958</v>
       </c>
       <c r="F167" t="n">
-        <v>109.72962289</v>
+        <v>106.62574672</v>
       </c>
       <c r="G167" t="n">
-        <v>103.99686776</v>
+        <v>104.49630552</v>
       </c>
       <c r="H167" t="n">
-        <v>104.18180524</v>
+        <v>105.490786</v>
       </c>
       <c r="I167" t="n">
-        <v>102.92863284</v>
+        <v>106.79525631</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>2013年8月</t>
+          <t>2013-11</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>103.04975059</v>
+        <v>103.95081097</v>
       </c>
       <c r="C168" t="inlineStr"/>
       <c r="D168" t="n">
-        <v>104.94494845</v>
+        <v>104.62098088</v>
       </c>
       <c r="E168" t="n">
-        <v>104.0329443</v>
+        <v>104.53581212</v>
       </c>
       <c r="F168" t="n">
-        <v>108.42431142</v>
+        <v>105.82156352</v>
       </c>
       <c r="G168" t="n">
-        <v>104.0644066</v>
+        <v>104.62601198</v>
       </c>
       <c r="H168" t="n">
-        <v>104.4795632</v>
+        <v>105.89375096</v>
       </c>
       <c r="I168" t="n">
-        <v>103.07938726</v>
+        <v>107.97928896</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>2013年9月</t>
+          <t>2013-12</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>103.37184735</v>
+        <v>104.0905248</v>
       </c>
       <c r="C169" t="inlineStr"/>
       <c r="D169" t="n">
-        <v>104.82355435</v>
+        <v>104.54652533</v>
       </c>
       <c r="E169" t="n">
-        <v>104.30827969</v>
+        <v>104.44800907</v>
       </c>
       <c r="F169" t="n">
-        <v>107.52256794</v>
+        <v>104.91881619</v>
       </c>
       <c r="G169" t="n">
-        <v>104.27604755</v>
+        <v>104.57837779</v>
       </c>
       <c r="H169" t="n">
-        <v>105.22748664</v>
+        <v>106.65535925</v>
       </c>
       <c r="I169" t="n">
-        <v>104.62278058</v>
+        <v>107.47500724</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>2014年10月</t>
+          <t>2014-01</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>104.89935845</v>
+        <v>106.5356496</v>
       </c>
       <c r="C170" t="inlineStr"/>
       <c r="D170" t="n">
-        <v>103.13348547</v>
+        <v>103.13799673</v>
       </c>
       <c r="E170" t="n">
-        <v>100.6634246</v>
+        <v>100.64085974</v>
       </c>
       <c r="F170" t="n">
-        <v>109.40302347</v>
+        <v>96.28116407</v>
       </c>
       <c r="G170" t="n">
-        <v>103.37208042</v>
+        <v>103.90090502</v>
       </c>
       <c r="H170" t="n">
-        <v>119.43519408</v>
+        <v>123.22510366</v>
       </c>
       <c r="I170" t="n">
-        <v>98.00481487</v>
+        <v>102.00827628</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>2014年11月</t>
+          <t>2014-02</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>104.68561397</v>
+        <v>105.73456527</v>
       </c>
       <c r="C171" t="inlineStr"/>
       <c r="D171" t="n">
-        <v>103.15454392</v>
+        <v>102.95917613</v>
       </c>
       <c r="E171" t="n">
-        <v>100.6683277</v>
+        <v>99.02386945000001</v>
       </c>
       <c r="F171" t="n">
-        <v>110.04372333</v>
+        <v>95.38195096</v>
       </c>
       <c r="G171" t="n">
-        <v>103.28439405</v>
+        <v>103.41999534</v>
       </c>
       <c r="H171" t="n">
-        <v>118.9806572</v>
+        <v>121.46644799</v>
       </c>
       <c r="I171" t="n">
-        <v>97.70593825</v>
+        <v>102.61026423</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>2014年12月</t>
+          <t>2014-03</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>104.49105494</v>
+        <v>106.47750014</v>
       </c>
       <c r="C172" t="inlineStr"/>
       <c r="D172" t="n">
-        <v>103.15362893</v>
+        <v>102.86354944</v>
       </c>
       <c r="E172" t="n">
-        <v>100.61205623</v>
+        <v>98.91035424</v>
       </c>
       <c r="F172" t="n">
-        <v>110.38443482</v>
+        <v>97.04546345</v>
       </c>
       <c r="G172" t="n">
-        <v>103.25943168</v>
+        <v>103.74825898</v>
       </c>
       <c r="H172" t="n">
-        <v>118.23260347</v>
+        <v>120.08023429</v>
       </c>
       <c r="I172" t="n">
-        <v>98.47555669</v>
+        <v>105.77340394</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>2014年1月</t>
+          <t>2014-04</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>106.5356496</v>
+        <v>106.36267263</v>
       </c>
       <c r="C173" t="inlineStr"/>
       <c r="D173" t="n">
-        <v>103.13799673</v>
+        <v>102.82443918</v>
       </c>
       <c r="E173" t="n">
-        <v>100.64085974</v>
+        <v>99.09476535</v>
       </c>
       <c r="F173" t="n">
-        <v>96.28116407</v>
+        <v>99.3808415</v>
       </c>
       <c r="G173" t="n">
-        <v>103.90090502</v>
+        <v>103.43446115</v>
       </c>
       <c r="H173" t="n">
-        <v>123.22510366</v>
+        <v>119.74446237</v>
       </c>
       <c r="I173" t="n">
-        <v>102.00827628</v>
+        <v>102.20062318</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>2014年2月</t>
+          <t>2014-05</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>105.73456527</v>
+        <v>106.11987067</v>
       </c>
       <c r="C174" t="inlineStr"/>
       <c r="D174" t="n">
-        <v>102.95917613</v>
+        <v>102.85805628</v>
       </c>
       <c r="E174" t="n">
-        <v>99.02386945000001</v>
+        <v>99.89800335</v>
       </c>
       <c r="F174" t="n">
-        <v>95.38195096</v>
+        <v>102.84131987</v>
       </c>
       <c r="G174" t="n">
-        <v>103.41999534</v>
+        <v>103.59518713</v>
       </c>
       <c r="H174" t="n">
-        <v>121.46644799</v>
+        <v>119.85569163</v>
       </c>
       <c r="I174" t="n">
-        <v>102.61026423</v>
+        <v>101.38344209</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>2014年3月</t>
+          <t>2014-06</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>106.47750014</v>
+        <v>105.77685745</v>
       </c>
       <c r="C175" t="inlineStr"/>
       <c r="D175" t="n">
-        <v>102.86354944</v>
+        <v>102.90840743</v>
       </c>
       <c r="E175" t="n">
-        <v>98.91035424</v>
+        <v>100.24058855</v>
       </c>
       <c r="F175" t="n">
-        <v>97.04546345</v>
+        <v>104.45012136</v>
       </c>
       <c r="G175" t="n">
-        <v>103.74825898</v>
+        <v>103.63259291</v>
       </c>
       <c r="H175" t="n">
-        <v>120.08023429</v>
+        <v>119.9262392</v>
       </c>
       <c r="I175" t="n">
-        <v>105.77340394</v>
+        <v>100.92576191</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>2014年4月</t>
+          <t>2014-07</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>106.36267263</v>
+        <v>105.50588499</v>
       </c>
       <c r="C176" t="inlineStr"/>
       <c r="D176" t="n">
-        <v>102.82443918</v>
+        <v>102.96990382</v>
       </c>
       <c r="E176" t="n">
-        <v>99.09476535</v>
+        <v>100.37229548</v>
       </c>
       <c r="F176" t="n">
-        <v>99.3808415</v>
+        <v>106.47780542</v>
       </c>
       <c r="G176" t="n">
-        <v>103.43446115</v>
+        <v>103.63986238</v>
       </c>
       <c r="H176" t="n">
-        <v>119.74446237</v>
+        <v>120.00340249</v>
       </c>
       <c r="I176" t="n">
-        <v>102.20062318</v>
+        <v>100.55213175</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>2014年5月</t>
+          <t>2014-08</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>106.11987067</v>
+        <v>105.30581595</v>
       </c>
       <c r="C177" t="inlineStr"/>
       <c r="D177" t="n">
-        <v>102.85805628</v>
+        <v>103.02732247</v>
       </c>
       <c r="E177" t="n">
-        <v>99.89800335</v>
+        <v>100.47916659</v>
       </c>
       <c r="F177" t="n">
-        <v>102.84131987</v>
+        <v>108.01954794</v>
       </c>
       <c r="G177" t="n">
-        <v>103.59518713</v>
+        <v>103.57953447</v>
       </c>
       <c r="H177" t="n">
-        <v>119.85569163</v>
+        <v>120.18087685</v>
       </c>
       <c r="I177" t="n">
-        <v>101.38344209</v>
+        <v>99.62377822000001</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>2014年6月</t>
+          <t>2014-09</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>105.77685745</v>
+        <v>105.08870876</v>
       </c>
       <c r="C178" t="inlineStr"/>
       <c r="D178" t="n">
-        <v>102.90840743</v>
+        <v>103.08034063</v>
       </c>
       <c r="E178" t="n">
-        <v>100.24058855</v>
+        <v>100.58313168</v>
       </c>
       <c r="F178" t="n">
-        <v>104.45012136</v>
+        <v>108.60494881</v>
       </c>
       <c r="G178" t="n">
-        <v>103.63259291</v>
+        <v>103.45523788</v>
       </c>
       <c r="H178" t="n">
-        <v>119.9262392</v>
+        <v>119.84450563</v>
       </c>
       <c r="I178" t="n">
-        <v>100.92576191</v>
+        <v>98.60305086</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>2014年7月</t>
+          <t>2014-10</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>105.50588499</v>
+        <v>104.89935845</v>
       </c>
       <c r="C179" t="inlineStr"/>
       <c r="D179" t="n">
-        <v>102.96990382</v>
+        <v>103.13348547</v>
       </c>
       <c r="E179" t="n">
-        <v>100.37229548</v>
+        <v>100.6634246</v>
       </c>
       <c r="F179" t="n">
-        <v>106.47780542</v>
+        <v>109.40302347</v>
       </c>
       <c r="G179" t="n">
-        <v>103.63986238</v>
+        <v>103.37208042</v>
       </c>
       <c r="H179" t="n">
-        <v>120.00340249</v>
+        <v>119.43519408</v>
       </c>
       <c r="I179" t="n">
-        <v>100.55213175</v>
+        <v>98.00481487</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>2014年8月</t>
+          <t>2014-11</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>105.30581595</v>
+        <v>104.68561397</v>
       </c>
       <c r="C180" t="inlineStr"/>
       <c r="D180" t="n">
-        <v>103.02732247</v>
+        <v>103.15454392</v>
       </c>
       <c r="E180" t="n">
-        <v>100.47916659</v>
+        <v>100.6683277</v>
       </c>
       <c r="F180" t="n">
-        <v>108.01954794</v>
+        <v>110.04372333</v>
       </c>
       <c r="G180" t="n">
-        <v>103.57953447</v>
+        <v>103.28439405</v>
       </c>
       <c r="H180" t="n">
-        <v>120.18087685</v>
+        <v>118.9806572</v>
       </c>
       <c r="I180" t="n">
-        <v>99.62377822000001</v>
+        <v>97.70593825</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>2014年9月</t>
+          <t>2014-12</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>105.08870876</v>
+        <v>104.49105494</v>
       </c>
       <c r="C181" t="inlineStr"/>
       <c r="D181" t="n">
-        <v>103.08034063</v>
+        <v>103.15362893</v>
       </c>
       <c r="E181" t="n">
-        <v>100.58313168</v>
+        <v>100.61205623</v>
       </c>
       <c r="F181" t="n">
-        <v>108.60494881</v>
+        <v>110.38443482</v>
       </c>
       <c r="G181" t="n">
-        <v>103.45523788</v>
+        <v>103.25943168</v>
       </c>
       <c r="H181" t="n">
-        <v>119.84450563</v>
+        <v>118.23260347</v>
       </c>
       <c r="I181" t="n">
-        <v>98.60305086</v>
+        <v>98.47555669</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>2015年10月</t>
+          <t>2015-01</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>101.57091763</v>
+        <v>100.38210691</v>
       </c>
       <c r="C182" t="inlineStr"/>
       <c r="D182" t="n">
-        <v>102.3598162</v>
+        <v>103.07642373</v>
       </c>
       <c r="E182" t="n">
-        <v>104.58020792</v>
+        <v>99.35245275</v>
       </c>
       <c r="F182" t="n">
-        <v>94.252522</v>
+        <v>108.55501069</v>
       </c>
       <c r="G182" t="n">
-        <v>102.2672928</v>
+        <v>101.18318856</v>
       </c>
       <c r="H182" t="n">
-        <v>96.60361326</v>
+        <v>102.95883796</v>
       </c>
       <c r="I182" t="n">
-        <v>106.77333078</v>
+        <v>99.38038847</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>2015年11月</t>
+          <t>2015-02</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>101.63410785</v>
+        <v>101.25869</v>
       </c>
       <c r="C183" t="inlineStr"/>
       <c r="D183" t="n">
-        <v>102.26401558</v>
+        <v>103.04399081</v>
       </c>
       <c r="E183" t="n">
-        <v>104.7129196</v>
+        <v>100.42601952</v>
       </c>
       <c r="F183" t="n">
-        <v>93.49928633</v>
+        <v>109.91465462</v>
       </c>
       <c r="G183" t="n">
-        <v>102.27203157</v>
+        <v>101.79986307</v>
       </c>
       <c r="H183" t="n">
-        <v>96.27497488</v>
+        <v>103.29925489</v>
       </c>
       <c r="I183" t="n">
-        <v>107.03155075</v>
+        <v>101.95503765</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>2015年12月</t>
+          <t>2015-03</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>101.72238596</v>
+        <v>101.31575946</v>
       </c>
       <c r="C184" t="inlineStr"/>
       <c r="D184" t="n">
-        <v>102.1861998</v>
+        <v>102.99240574</v>
       </c>
       <c r="E184" t="n">
-        <v>104.81727594</v>
+        <v>101.28597447</v>
       </c>
       <c r="F184" t="n">
-        <v>93.10313471000001</v>
+        <v>108.42820098</v>
       </c>
       <c r="G184" t="n">
-        <v>102.30801585</v>
+        <v>101.95357919</v>
       </c>
       <c r="H184" t="n">
-        <v>96.021221</v>
+        <v>104.32215001</v>
       </c>
       <c r="I184" t="n">
-        <v>107.45898264</v>
+        <v>101.40454313</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>2015年1月</t>
+          <t>2015-04</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>100.38210691</v>
+        <v>101.21965748</v>
       </c>
       <c r="C185" t="inlineStr"/>
       <c r="D185" t="n">
-        <v>103.07642373</v>
+        <v>102.96452433</v>
       </c>
       <c r="E185" t="n">
-        <v>99.35245275</v>
+        <v>102.11221667</v>
       </c>
       <c r="F185" t="n">
-        <v>108.55501069</v>
+        <v>105.31684491</v>
       </c>
       <c r="G185" t="n">
-        <v>101.18318856</v>
+        <v>102.12491642</v>
       </c>
       <c r="H185" t="n">
-        <v>102.95883796</v>
+        <v>103.5561035</v>
       </c>
       <c r="I185" t="n">
-        <v>99.38038847</v>
+        <v>102.70904568</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>2015年2月</t>
+          <t>2015-05</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>101.25869</v>
+        <v>101.10145491</v>
       </c>
       <c r="C186" t="inlineStr"/>
       <c r="D186" t="n">
-        <v>103.04399081</v>
+        <v>102.89174292</v>
       </c>
       <c r="E186" t="n">
-        <v>100.42601952</v>
+        <v>102.25568362</v>
       </c>
       <c r="F186" t="n">
-        <v>109.91465462</v>
+        <v>101.30449506</v>
       </c>
       <c r="G186" t="n">
-        <v>101.79986307</v>
+        <v>102.0119105</v>
       </c>
       <c r="H186" t="n">
-        <v>103.29925489</v>
+        <v>102.12823175</v>
       </c>
       <c r="I186" t="n">
-        <v>101.95503765</v>
+        <v>103.36240903</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>2015年3月</t>
+          <t>2015-06</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>101.31575946</v>
+        <v>101.21442247</v>
       </c>
       <c r="C187" t="inlineStr"/>
       <c r="D187" t="n">
-        <v>102.99240574</v>
+        <v>102.77994736</v>
       </c>
       <c r="E187" t="n">
-        <v>101.28597447</v>
+        <v>102.45103572</v>
       </c>
       <c r="F187" t="n">
-        <v>108.42820098</v>
+        <v>99.17216735</v>
       </c>
       <c r="G187" t="n">
-        <v>101.95357919</v>
+        <v>101.98020778</v>
       </c>
       <c r="H187" t="n">
-        <v>104.32215001</v>
+        <v>100.22011439</v>
       </c>
       <c r="I187" t="n">
-        <v>101.40454313</v>
+        <v>104.50404218</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>2015年4月</t>
+          <t>2015-07</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>101.21965748</v>
+        <v>101.4029203</v>
       </c>
       <c r="C188" t="inlineStr"/>
       <c r="D188" t="n">
-        <v>102.96452433</v>
+        <v>102.68051569</v>
       </c>
       <c r="E188" t="n">
-        <v>102.11221667</v>
+        <v>103.14364999</v>
       </c>
       <c r="F188" t="n">
-        <v>105.31684491</v>
+        <v>97.12680225</v>
       </c>
       <c r="G188" t="n">
-        <v>102.12491642</v>
+        <v>102.07758581</v>
       </c>
       <c r="H188" t="n">
-        <v>103.5561035</v>
+        <v>99.00355244000001</v>
       </c>
       <c r="I188" t="n">
-        <v>102.70904568</v>
+        <v>105.28766667</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>2015年5月</t>
+          <t>2015-08</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>101.10145491</v>
+        <v>101.50633011</v>
       </c>
       <c r="C189" t="inlineStr"/>
       <c r="D189" t="n">
-        <v>102.89174292</v>
+        <v>102.58388443</v>
       </c>
       <c r="E189" t="n">
-        <v>102.25568362</v>
+        <v>103.87245465</v>
       </c>
       <c r="F189" t="n">
-        <v>101.30449506</v>
+        <v>95.99062888</v>
       </c>
       <c r="G189" t="n">
-        <v>102.0119105</v>
+        <v>102.26806108</v>
       </c>
       <c r="H189" t="n">
-        <v>102.12823175</v>
+        <v>98.16013507</v>
       </c>
       <c r="I189" t="n">
-        <v>103.36240903</v>
+        <v>106.52677388</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>2015年6月</t>
+          <t>2015-09</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>101.21442247</v>
+        <v>101.52710368</v>
       </c>
       <c r="C190" t="inlineStr"/>
       <c r="D190" t="n">
-        <v>102.77994736</v>
+        <v>102.47414549</v>
       </c>
       <c r="E190" t="n">
-        <v>102.45103572</v>
+        <v>104.32321852</v>
       </c>
       <c r="F190" t="n">
-        <v>99.17216735</v>
+        <v>95.23014560999999</v>
       </c>
       <c r="G190" t="n">
-        <v>101.98020778</v>
+        <v>102.31215561</v>
       </c>
       <c r="H190" t="n">
-        <v>100.22011439</v>
+        <v>97.20920339</v>
       </c>
       <c r="I190" t="n">
-        <v>104.50404218</v>
+        <v>106.9658076</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>2015年7月</t>
+          <t>2015-10</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>101.4029203</v>
+        <v>101.57091763</v>
       </c>
       <c r="C191" t="inlineStr"/>
       <c r="D191" t="n">
-        <v>102.68051569</v>
+        <v>102.3598162</v>
       </c>
       <c r="E191" t="n">
-        <v>103.14364999</v>
+        <v>104.58020792</v>
       </c>
       <c r="F191" t="n">
-        <v>97.12680225</v>
+        <v>94.252522</v>
       </c>
       <c r="G191" t="n">
-        <v>102.07758581</v>
+        <v>102.2672928</v>
       </c>
       <c r="H191" t="n">
-        <v>99.00355244000001</v>
+        <v>96.60361326</v>
       </c>
       <c r="I191" t="n">
-        <v>105.28766667</v>
+        <v>106.77333078</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>2015年8月</t>
+          <t>2015-11</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>101.50633011</v>
+        <v>101.63410785</v>
       </c>
       <c r="C192" t="inlineStr"/>
       <c r="D192" t="n">
-        <v>102.58388443</v>
+        <v>102.26401558</v>
       </c>
       <c r="E192" t="n">
-        <v>103.87245465</v>
+        <v>104.7129196</v>
       </c>
       <c r="F192" t="n">
-        <v>95.99062888</v>
+        <v>93.49928633</v>
       </c>
       <c r="G192" t="n">
-        <v>102.26806108</v>
+        <v>102.27203157</v>
       </c>
       <c r="H192" t="n">
-        <v>98.16013507</v>
+        <v>96.27497488</v>
       </c>
       <c r="I192" t="n">
-        <v>106.52677388</v>
+        <v>107.03155075</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>2015年9月</t>
+          <t>2015-12</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>101.52710368</v>
+        <v>101.72238596</v>
       </c>
       <c r="C193" t="inlineStr"/>
       <c r="D193" t="n">
-        <v>102.47414549</v>
+        <v>102.1861998</v>
       </c>
       <c r="E193" t="n">
-        <v>104.32321852</v>
+        <v>104.81727594</v>
       </c>
       <c r="F193" t="n">
-        <v>95.23014560999999</v>
+        <v>93.10313471000001</v>
       </c>
       <c r="G193" t="n">
-        <v>102.31215561</v>
+        <v>102.30801585</v>
       </c>
       <c r="H193" t="n">
-        <v>97.20920339</v>
+        <v>96.021221</v>
       </c>
       <c r="I193" t="n">
-        <v>106.9658076</v>
+        <v>107.45898264</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
         <is>
-          <t>2016年10月</t>
+          <t>2016-01</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>104.913128499999</v>
+        <v>102.81010352</v>
       </c>
       <c r="C194" t="n">
-        <v>111.7569329</v>
+        <v>110.27581435</v>
       </c>
       <c r="D194" t="n">
-        <v>100.550452699999</v>
+        <v>100.84521665</v>
       </c>
       <c r="E194" t="inlineStr"/>
       <c r="F194" t="n">
-        <v>96.79280842999989</v>
+        <v>95.74310407</v>
       </c>
       <c r="G194" t="inlineStr"/>
       <c r="H194" t="n">
-        <v>96.4776286299999</v>
+        <v>93.19770588</v>
       </c>
       <c r="I194" t="n">
-        <v>112.3187985</v>
+        <v>115.12788715</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
         <is>
-          <t>2016年11月</t>
+          <t>2016-02</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>104.9635991</v>
+        <v>103.21145094</v>
       </c>
       <c r="C195" t="n">
-        <v>111.0569516</v>
+        <v>112.16917406</v>
       </c>
       <c r="D195" t="n">
-        <v>100.5551926</v>
+        <v>100.80590251</v>
       </c>
       <c r="E195" t="inlineStr"/>
       <c r="F195" t="n">
-        <v>96.89920877</v>
+        <v>96.00079504</v>
       </c>
       <c r="G195" t="inlineStr"/>
       <c r="H195" t="n">
-        <v>96.97112786</v>
+        <v>92.63463019</v>
       </c>
       <c r="I195" t="n">
-        <v>112.6044121</v>
+        <v>123.65403292</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
         <is>
-          <t>2016年12月</t>
+          <t>2016-03</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>104.9433082</v>
+        <v>103.16528185</v>
       </c>
       <c r="C196" t="n">
-        <v>110.5274735</v>
+        <v>113.22877743</v>
       </c>
       <c r="D196" t="n">
-        <v>100.583888</v>
+        <v>100.72177903</v>
       </c>
       <c r="E196" t="inlineStr"/>
       <c r="F196" t="n">
-        <v>96.81006635</v>
+        <v>95.46411825</v>
       </c>
       <c r="G196" t="inlineStr"/>
       <c r="H196" t="n">
-        <v>97.46081631</v>
+        <v>91.72916867000001</v>
       </c>
       <c r="I196" t="n">
-        <v>111.6538625</v>
+        <v>127.71745639</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
         <is>
-          <t>2016年1月</t>
+          <t>2016-04</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>102.81010352</v>
+        <v>103.50298307</v>
       </c>
       <c r="C197" t="n">
-        <v>110.27581435</v>
+        <v>114.62440749</v>
       </c>
       <c r="D197" t="n">
-        <v>100.84521665</v>
+        <v>100.67964101</v>
       </c>
       <c r="E197" t="inlineStr"/>
       <c r="F197" t="n">
-        <v>95.74310407</v>
+        <v>96.16626676</v>
       </c>
       <c r="G197" t="inlineStr"/>
       <c r="H197" t="n">
-        <v>93.19770588</v>
+        <v>91.92413155</v>
       </c>
       <c r="I197" t="n">
-        <v>115.12788715</v>
+        <v>126.46842084</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
         <is>
-          <t>2016年2月</t>
+          <t>2016-05</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>103.21145094</v>
+        <v>103.85068587</v>
       </c>
       <c r="C198" t="n">
-        <v>112.16917406</v>
+        <v>115.62740773</v>
       </c>
       <c r="D198" t="n">
-        <v>100.80590251</v>
+        <v>100.67286003</v>
       </c>
       <c r="E198" t="inlineStr"/>
       <c r="F198" t="n">
-        <v>96.00079504</v>
+        <v>96.84594525</v>
       </c>
       <c r="G198" t="inlineStr"/>
       <c r="H198" t="n">
-        <v>92.63463019</v>
+        <v>92.06992095</v>
       </c>
       <c r="I198" t="n">
-        <v>123.65403292</v>
+        <v>122.88711354</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
         <is>
-          <t>2016年3月</t>
+          <t>2016-06</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>103.16528185</v>
+        <v>104.18297749</v>
       </c>
       <c r="C199" t="n">
-        <v>113.22877743</v>
+        <v>116.0545008</v>
       </c>
       <c r="D199" t="n">
-        <v>100.72177903</v>
+        <v>100.68611298</v>
       </c>
       <c r="E199" t="inlineStr"/>
       <c r="F199" t="n">
-        <v>95.46411825</v>
+        <v>97.37263962</v>
       </c>
       <c r="G199" t="inlineStr"/>
       <c r="H199" t="n">
-        <v>91.72916867000001</v>
+        <v>92.78011228</v>
       </c>
       <c r="I199" t="n">
-        <v>127.71745639</v>
+        <v>118.40949388</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
         <is>
-          <t>2016年4月</t>
+          <t>2016-07</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>103.50298307</v>
+        <v>104.46982007</v>
       </c>
       <c r="C200" t="n">
-        <v>114.62440749</v>
+        <v>115.25457047</v>
       </c>
       <c r="D200" t="n">
-        <v>100.67964101</v>
+        <v>100.66000291</v>
       </c>
       <c r="E200" t="inlineStr"/>
       <c r="F200" t="n">
-        <v>96.16626676</v>
+        <v>97.45731345999999</v>
       </c>
       <c r="G200" t="inlineStr"/>
       <c r="H200" t="n">
-        <v>91.92413155</v>
+        <v>93.77149695999999</v>
       </c>
       <c r="I200" t="n">
-        <v>126.46842084</v>
+        <v>115.36046798</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
         <is>
-          <t>2016年5月</t>
+          <t>2016-08</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>103.85068587</v>
+        <v>104.64397008</v>
       </c>
       <c r="C201" t="n">
-        <v>115.62740773</v>
+        <v>113.84278023</v>
       </c>
       <c r="D201" t="n">
-        <v>100.67286003</v>
+        <v>100.61803394</v>
       </c>
       <c r="E201" t="inlineStr"/>
       <c r="F201" t="n">
-        <v>96.84594525</v>
+        <v>96.84864073</v>
       </c>
       <c r="G201" t="inlineStr"/>
       <c r="H201" t="n">
-        <v>92.06992095</v>
+        <v>94.38412640999999</v>
       </c>
       <c r="I201" t="n">
-        <v>122.88711354</v>
+        <v>112.91189256</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
         <is>
-          <t>2016年6月</t>
+          <t>2016-09</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>104.18297749</v>
+        <v>104.853806399999</v>
       </c>
       <c r="C202" t="n">
-        <v>116.0545008</v>
+        <v>112.7002253</v>
       </c>
       <c r="D202" t="n">
-        <v>100.68611298</v>
+        <v>100.573150799999</v>
       </c>
       <c r="E202" t="inlineStr"/>
       <c r="F202" t="n">
-        <v>97.37263962</v>
+        <v>96.67914484000001</v>
       </c>
       <c r="G202" t="inlineStr"/>
       <c r="H202" t="n">
-        <v>92.78011228</v>
+        <v>95.5788445799999</v>
       </c>
       <c r="I202" t="n">
-        <v>118.40949388</v>
+        <v>112.2671523</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
         <is>
-          <t>2016年7月</t>
+          <t>2016-10</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>104.46982007</v>
+        <v>104.913128499999</v>
       </c>
       <c r="C203" t="n">
-        <v>115.25457047</v>
+        <v>111.7569329</v>
       </c>
       <c r="D203" t="n">
-        <v>100.66000291</v>
+        <v>100.550452699999</v>
       </c>
       <c r="E203" t="inlineStr"/>
       <c r="F203" t="n">
-        <v>97.45731345999999</v>
+        <v>96.79280842999989</v>
       </c>
       <c r="G203" t="inlineStr"/>
       <c r="H203" t="n">
-        <v>93.77149695999999</v>
+        <v>96.4776286299999</v>
       </c>
       <c r="I203" t="n">
-        <v>115.36046798</v>
+        <v>112.3187985</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
         <is>
-          <t>2016年8月</t>
+          <t>2016-11</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>104.64397008</v>
+        <v>104.9635991</v>
       </c>
       <c r="C204" t="n">
-        <v>113.84278023</v>
+        <v>111.0569516</v>
       </c>
       <c r="D204" t="n">
-        <v>100.61803394</v>
+        <v>100.5551926</v>
       </c>
       <c r="E204" t="inlineStr"/>
       <c r="F204" t="n">
-        <v>96.84864073</v>
+        <v>96.89920877</v>
       </c>
       <c r="G204" t="inlineStr"/>
       <c r="H204" t="n">
-        <v>94.38412640999999</v>
+        <v>96.97112786</v>
       </c>
       <c r="I204" t="n">
-        <v>112.91189256</v>
+        <v>112.6044121</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
         <is>
-          <t>2016年9月</t>
+          <t>2016-12</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>104.853806399999</v>
+        <v>104.9433082</v>
       </c>
       <c r="C205" t="n">
-        <v>112.7002253</v>
+        <v>110.5274735</v>
       </c>
       <c r="D205" t="n">
-        <v>100.573150799999</v>
+        <v>100.583888</v>
       </c>
       <c r="E205" t="inlineStr"/>
       <c r="F205" t="n">
-        <v>96.67914484000001</v>
+        <v>96.81006635</v>
       </c>
       <c r="G205" t="inlineStr"/>
       <c r="H205" t="n">
-        <v>95.5788445799999</v>
+        <v>97.46081631</v>
       </c>
       <c r="I205" t="n">
-        <v>112.2671523</v>
+        <v>111.6538625</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
         <is>
-          <t>2017年10月</t>
+          <t>2017-01</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>104.8026872</v>
+        <v>106.7323071</v>
       </c>
       <c r="C206" t="n">
-        <v>95.56644516999999</v>
+        <v>105.8088211</v>
       </c>
       <c r="D206" t="n">
-        <v>101.3887995</v>
+        <v>101.1361128</v>
       </c>
       <c r="E206" t="inlineStr"/>
       <c r="F206" t="n">
-        <v>93.97512798</v>
+        <v>91.45966712000001</v>
       </c>
       <c r="G206" t="inlineStr"/>
       <c r="H206" t="n">
-        <v>103.4620328</v>
+        <v>105.023203</v>
       </c>
       <c r="I206" t="n">
-        <v>91.90294217</v>
+        <v>101.1623061</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
         <is>
-          <t>2017年11月</t>
+          <t>2017-02</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>104.6736108</v>
+        <v>104.52248735</v>
       </c>
       <c r="C207" t="n">
-        <v>95.60360718</v>
+        <v>102.9777962</v>
       </c>
       <c r="D207" t="n">
-        <v>101.3899602</v>
+        <v>101.10777021</v>
       </c>
       <c r="E207" t="inlineStr"/>
       <c r="F207" t="n">
-        <v>95.01040666999999</v>
+        <v>88.69119867000001</v>
       </c>
       <c r="G207" t="inlineStr"/>
       <c r="H207" t="n">
-        <v>103.5143861</v>
+        <v>103.67258974</v>
       </c>
       <c r="I207" t="n">
-        <v>91.76491923</v>
+        <v>85.49447659</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
         <is>
-          <t>2017年12月</t>
+          <t>2017-03</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>104.6255414</v>
+        <v>104.7095348</v>
       </c>
       <c r="C208" t="n">
-        <v>95.67318125</v>
+        <v>101.7031742</v>
       </c>
       <c r="D208" t="n">
-        <v>101.3759987</v>
+        <v>101.1712888</v>
       </c>
       <c r="E208" t="inlineStr"/>
       <c r="F208" t="n">
-        <v>96.33228535000001</v>
+        <v>88.69406671</v>
       </c>
       <c r="G208" t="inlineStr"/>
       <c r="H208" t="n">
-        <v>103.7523892</v>
+        <v>103.3751149</v>
       </c>
       <c r="I208" t="n">
-        <v>91.72583109</v>
+        <v>80.713007</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
         <is>
-          <t>2017年1月</t>
+          <t>2017-04</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>106.7323071</v>
+        <v>105.0691712</v>
       </c>
       <c r="C209" t="n">
-        <v>105.8088211</v>
+        <v>100.217565</v>
       </c>
       <c r="D209" t="n">
-        <v>101.1361128</v>
+        <v>101.2381496</v>
       </c>
       <c r="E209" t="inlineStr"/>
       <c r="F209" t="n">
-        <v>91.45966712000001</v>
+        <v>88.78137150000001</v>
       </c>
       <c r="G209" t="inlineStr"/>
       <c r="H209" t="n">
-        <v>105.023203</v>
+        <v>103.8753482</v>
       </c>
       <c r="I209" t="n">
-        <v>101.1623061</v>
+        <v>80.16931705</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
         <is>
-          <t>2017年2月</t>
+          <t>2017-05</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>104.52248735</v>
+        <v>105.5116242</v>
       </c>
       <c r="C210" t="n">
-        <v>102.9777962</v>
+        <v>98.71603433</v>
       </c>
       <c r="D210" t="n">
-        <v>101.10777021</v>
+        <v>101.2594628</v>
       </c>
       <c r="E210" t="inlineStr"/>
       <c r="F210" t="n">
-        <v>88.69119867000001</v>
+        <v>88.30613812</v>
       </c>
       <c r="G210" t="inlineStr"/>
       <c r="H210" t="n">
-        <v>103.67258974</v>
+        <v>105.3598042</v>
       </c>
       <c r="I210" t="n">
-        <v>85.49447659</v>
+        <v>82.26531110000001</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
         <is>
-          <t>2017年3月</t>
+          <t>2017-06</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>104.7095348</v>
+        <v>105.4956782</v>
       </c>
       <c r="C211" t="n">
-        <v>101.7031742</v>
+        <v>97.29639677999999</v>
       </c>
       <c r="D211" t="n">
-        <v>101.1712888</v>
+        <v>101.2968497</v>
       </c>
       <c r="E211" t="inlineStr"/>
       <c r="F211" t="n">
-        <v>88.69406671</v>
+        <v>88.78343954</v>
       </c>
       <c r="G211" t="inlineStr"/>
       <c r="H211" t="n">
-        <v>103.3751149</v>
+        <v>106.0812263</v>
       </c>
       <c r="I211" t="n">
-        <v>80.713007</v>
+        <v>85.10023002</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
         <is>
-          <t>2017年4月</t>
+          <t>2017-07</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>105.0691712</v>
+        <v>105.3584127</v>
       </c>
       <c r="C212" t="n">
-        <v>100.217565</v>
+        <v>96.40473836</v>
       </c>
       <c r="D212" t="n">
-        <v>101.2381496</v>
+        <v>101.330081</v>
       </c>
       <c r="E212" t="inlineStr"/>
       <c r="F212" t="n">
-        <v>88.78137150000001</v>
+        <v>89.73429584</v>
       </c>
       <c r="G212" t="inlineStr"/>
       <c r="H212" t="n">
-        <v>103.8753482</v>
+        <v>105.4401084</v>
       </c>
       <c r="I212" t="n">
-        <v>80.16931705</v>
+        <v>87.7626467</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
         <is>
-          <t>2017年5月</t>
+          <t>2017-08</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>105.5116242</v>
+        <v>105.1737155</v>
       </c>
       <c r="C213" t="n">
-        <v>98.71603433</v>
+        <v>95.91126801999999</v>
       </c>
       <c r="D213" t="n">
-        <v>101.2594628</v>
+        <v>101.3539649</v>
       </c>
       <c r="E213" t="inlineStr"/>
       <c r="F213" t="n">
-        <v>88.30613812</v>
+        <v>91.54867364</v>
       </c>
       <c r="G213" t="inlineStr"/>
       <c r="H213" t="n">
-        <v>105.3598042</v>
+        <v>104.7672827</v>
       </c>
       <c r="I213" t="n">
-        <v>82.26531110000001</v>
+        <v>90.10054733</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
         <is>
-          <t>2017年6月</t>
+          <t>2017-09</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>105.4956782</v>
+        <v>104.8898256</v>
       </c>
       <c r="C214" t="n">
-        <v>97.29639677999999</v>
+        <v>95.61764853</v>
       </c>
       <c r="D214" t="n">
-        <v>101.2968497</v>
+        <v>101.3786678</v>
       </c>
       <c r="E214" t="inlineStr"/>
       <c r="F214" t="n">
-        <v>88.78343954</v>
+        <v>92.96470703999999</v>
       </c>
       <c r="G214" t="inlineStr"/>
       <c r="H214" t="n">
-        <v>106.0812263</v>
+        <v>103.9036998</v>
       </c>
       <c r="I214" t="n">
-        <v>85.10023002</v>
+        <v>91.03007981</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
         <is>
-          <t>2017年7月</t>
+          <t>2017-10</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>105.3584127</v>
+        <v>104.8026872</v>
       </c>
       <c r="C215" t="n">
-        <v>96.40473836</v>
+        <v>95.56644516999999</v>
       </c>
       <c r="D215" t="n">
-        <v>101.330081</v>
+        <v>101.3887995</v>
       </c>
       <c r="E215" t="inlineStr"/>
       <c r="F215" t="n">
-        <v>89.73429584</v>
+        <v>93.97512798</v>
       </c>
       <c r="G215" t="inlineStr"/>
       <c r="H215" t="n">
-        <v>105.4401084</v>
+        <v>103.4620328</v>
       </c>
       <c r="I215" t="n">
-        <v>87.7626467</v>
+        <v>91.90294217</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
         <is>
-          <t>2017年8月</t>
+          <t>2017-11</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>105.1737155</v>
+        <v>104.6736108</v>
       </c>
       <c r="C216" t="n">
-        <v>95.91126801999999</v>
+        <v>95.60360718</v>
       </c>
       <c r="D216" t="n">
-        <v>101.3539649</v>
+        <v>101.3899602</v>
       </c>
       <c r="E216" t="inlineStr"/>
       <c r="F216" t="n">
-        <v>91.54867364</v>
+        <v>95.01040666999999</v>
       </c>
       <c r="G216" t="inlineStr"/>
       <c r="H216" t="n">
-        <v>104.7672827</v>
+        <v>103.5143861</v>
       </c>
       <c r="I216" t="n">
-        <v>90.10054733</v>
+        <v>91.76491923</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
         <is>
-          <t>2017年9月</t>
+          <t>2017-12</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>104.8898256</v>
+        <v>104.6255414</v>
       </c>
       <c r="C217" t="n">
-        <v>95.61764853</v>
+        <v>95.67318125</v>
       </c>
       <c r="D217" t="n">
-        <v>101.3786678</v>
+        <v>101.3759987</v>
       </c>
       <c r="E217" t="inlineStr"/>
       <c r="F217" t="n">
-        <v>92.96470703999999</v>
+        <v>96.33228535000001</v>
       </c>
       <c r="G217" t="inlineStr"/>
       <c r="H217" t="n">
-        <v>103.9036998</v>
+        <v>103.7523892</v>
       </c>
       <c r="I217" t="n">
-        <v>91.03007981</v>
+        <v>91.72583109</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
         <is>
-          <t>2018年10月</t>
+          <t>2018-01</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>102.21691133</v>
+        <v>102.4068863</v>
       </c>
       <c r="C218" t="n">
-        <v>95.98091427999999</v>
+        <v>94.69825633000001</v>
       </c>
       <c r="D218" t="n">
-        <v>100.7928507</v>
+        <v>101.2108476</v>
       </c>
       <c r="E218" t="inlineStr"/>
       <c r="F218" t="n">
-        <v>113.52367448</v>
+        <v>113.8203878</v>
       </c>
       <c r="G218" t="inlineStr"/>
       <c r="H218" t="n">
-        <v>104.43896238</v>
+        <v>106.7036031</v>
       </c>
       <c r="I218" t="n">
-        <v>108.35884157</v>
+        <v>94.30584888</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
         <is>
-          <t>2018年11月</t>
+          <t>2018-02</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>102.17835567</v>
+        <v>105.5424254</v>
       </c>
       <c r="C219" t="n">
-        <v>96.44069057999999</v>
+        <v>96.07685125</v>
       </c>
       <c r="D219" t="n">
-        <v>100.78268922</v>
+        <v>101.1804817</v>
       </c>
       <c r="E219" t="inlineStr"/>
       <c r="F219" t="n">
-        <v>112.82714278</v>
+        <v>117.5332242</v>
       </c>
       <c r="G219" t="inlineStr"/>
       <c r="H219" t="n">
-        <v>105.16172209</v>
+        <v>107.6617406</v>
       </c>
       <c r="I219" t="n">
-        <v>107.74719901</v>
+        <v>105.9296771</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
         <is>
-          <t>2018年12月</t>
+          <t>2018-03</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>102.15431397</v>
+        <v>105.523214</v>
       </c>
       <c r="C220" t="n">
-        <v>96.84355263</v>
+        <v>95.61394032</v>
       </c>
       <c r="D220" t="n">
-        <v>100.76342311</v>
+        <v>101.1615059</v>
       </c>
       <c r="E220" t="inlineStr"/>
       <c r="F220" t="n">
-        <v>111.70573477</v>
+        <v>117.4353654</v>
       </c>
       <c r="G220" t="inlineStr"/>
       <c r="H220" t="n">
-        <v>105.48094112</v>
+        <v>107.6338879</v>
       </c>
       <c r="I220" t="n">
-        <v>107.48184368</v>
+        <v>107.0010313</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
         <is>
-          <t>2018年1月</t>
+          <t>2018-04</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>102.4068863</v>
+        <v>104.7745597</v>
       </c>
       <c r="C221" t="n">
-        <v>94.69825633000001</v>
+        <v>94.81981012999999</v>
       </c>
       <c r="D221" t="n">
-        <v>101.2108476</v>
+        <v>101.105829</v>
       </c>
       <c r="E221" t="inlineStr"/>
       <c r="F221" t="n">
-        <v>113.8203878</v>
+        <v>116.7473609</v>
       </c>
       <c r="G221" t="inlineStr"/>
       <c r="H221" t="n">
-        <v>106.7036031</v>
+        <v>106.8258282</v>
       </c>
       <c r="I221" t="n">
-        <v>94.30584888</v>
+        <v>107.3380857</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
         <is>
-          <t>2018年2月</t>
+          <t>2018-05</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>105.5424254</v>
+        <v>103.8572654</v>
       </c>
       <c r="C222" t="n">
-        <v>96.07685125</v>
+        <v>94.26146801</v>
       </c>
       <c r="D222" t="n">
-        <v>101.1804817</v>
+        <v>101.0479458</v>
       </c>
       <c r="E222" t="inlineStr"/>
       <c r="F222" t="n">
-        <v>117.5332242</v>
+        <v>117.3207139</v>
       </c>
       <c r="G222" t="inlineStr"/>
       <c r="H222" t="n">
-        <v>107.6617406</v>
+        <v>104.8508871</v>
       </c>
       <c r="I222" t="n">
-        <v>105.9296771</v>
+        <v>107.8644285</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
         <is>
-          <t>2018年3月</t>
+          <t>2018-06</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>105.523214</v>
+        <v>103.23833122</v>
       </c>
       <c r="C223" t="n">
-        <v>95.61394032</v>
+        <v>94.23958489</v>
       </c>
       <c r="D223" t="n">
-        <v>101.1615059</v>
+        <v>100.96383611</v>
       </c>
       <c r="E223" t="inlineStr"/>
       <c r="F223" t="n">
-        <v>117.4353654</v>
+        <v>116.86255043</v>
       </c>
       <c r="G223" t="inlineStr"/>
       <c r="H223" t="n">
-        <v>107.6338879</v>
+        <v>103.12124124</v>
       </c>
       <c r="I223" t="n">
-        <v>107.0010313</v>
+        <v>108.11104684</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
         <is>
-          <t>2018年4月</t>
+          <t>2018-07</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>104.7745597</v>
+        <v>102.77961115</v>
       </c>
       <c r="C224" t="n">
-        <v>94.81981012999999</v>
+        <v>94.45244891999999</v>
       </c>
       <c r="D224" t="n">
-        <v>101.105829</v>
+        <v>100.89743218</v>
       </c>
       <c r="E224" t="inlineStr"/>
       <c r="F224" t="n">
-        <v>116.7473609</v>
+        <v>116.05394238</v>
       </c>
       <c r="G224" t="inlineStr"/>
       <c r="H224" t="n">
-        <v>106.8258282</v>
+        <v>102.75016244</v>
       </c>
       <c r="I224" t="n">
-        <v>107.3380857</v>
+        <v>107.56603436</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="inlineStr">
         <is>
-          <t>2018年5月</t>
+          <t>2018-08</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>103.8572654</v>
+        <v>102.54986495</v>
       </c>
       <c r="C225" t="n">
-        <v>94.26146801</v>
+        <v>94.93739297</v>
       </c>
       <c r="D225" t="n">
-        <v>101.0479458</v>
+        <v>100.83893929</v>
       </c>
       <c r="E225" t="inlineStr"/>
       <c r="F225" t="n">
-        <v>117.3207139</v>
+        <v>115.2200391</v>
       </c>
       <c r="G225" t="inlineStr"/>
       <c r="H225" t="n">
-        <v>104.8508871</v>
+        <v>103.04991716</v>
       </c>
       <c r="I225" t="n">
-        <v>107.8644285</v>
+        <v>107.18937975</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="inlineStr">
         <is>
-          <t>2018年6月</t>
+          <t>2018-09</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>103.23833122</v>
+        <v>102.38831314</v>
       </c>
       <c r="C226" t="n">
-        <v>94.23958489</v>
+        <v>95.47294934999999</v>
       </c>
       <c r="D226" t="n">
-        <v>100.96383611</v>
+        <v>100.80375901</v>
       </c>
       <c r="E226" t="inlineStr"/>
       <c r="F226" t="n">
-        <v>116.86255043</v>
+        <v>114.15309212</v>
       </c>
       <c r="G226" t="inlineStr"/>
       <c r="H226" t="n">
-        <v>103.12124124</v>
+        <v>103.73872125</v>
       </c>
       <c r="I226" t="n">
-        <v>108.11104684</v>
+        <v>108.11613139</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="inlineStr">
         <is>
-          <t>2018年7月</t>
+          <t>2018-10</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>102.77961115</v>
+        <v>102.21691133</v>
       </c>
       <c r="C227" t="n">
-        <v>94.45244891999999</v>
+        <v>95.98091427999999</v>
       </c>
       <c r="D227" t="n">
-        <v>100.89743218</v>
+        <v>100.7928507</v>
       </c>
       <c r="E227" t="inlineStr"/>
       <c r="F227" t="n">
-        <v>116.05394238</v>
+        <v>113.52367448</v>
       </c>
       <c r="G227" t="inlineStr"/>
       <c r="H227" t="n">
-        <v>102.75016244</v>
+        <v>104.43896238</v>
       </c>
       <c r="I227" t="n">
-        <v>107.56603436</v>
+        <v>108.35884157</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
         <is>
-          <t>2018年8月</t>
+          <t>2018-11</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>102.54986495</v>
+        <v>102.17835567</v>
       </c>
       <c r="C228" t="n">
-        <v>94.93739297</v>
+        <v>96.44069057999999</v>
       </c>
       <c r="D228" t="n">
-        <v>100.83893929</v>
+        <v>100.78268922</v>
       </c>
       <c r="E228" t="inlineStr"/>
       <c r="F228" t="n">
-        <v>115.2200391</v>
+        <v>112.82714278</v>
       </c>
       <c r="G228" t="inlineStr"/>
       <c r="H228" t="n">
-        <v>103.04991716</v>
+        <v>105.16172209</v>
       </c>
       <c r="I228" t="n">
-        <v>107.18937975</v>
+        <v>107.74719901</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
         <is>
-          <t>2018年9月</t>
+          <t>2018-12</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>102.38831314</v>
+        <v>102.15431397</v>
       </c>
       <c r="C229" t="n">
-        <v>95.47294934999999</v>
+        <v>96.84355263</v>
       </c>
       <c r="D229" t="n">
-        <v>100.80375901</v>
+        <v>100.76342311</v>
       </c>
       <c r="E229" t="inlineStr"/>
       <c r="F229" t="n">
-        <v>114.15309212</v>
+        <v>111.70573477</v>
       </c>
       <c r="G229" t="inlineStr"/>
       <c r="H229" t="n">
-        <v>103.73872125</v>
+        <v>105.48094112</v>
       </c>
       <c r="I229" t="n">
-        <v>108.11613139</v>
+        <v>107.48184368</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="inlineStr">
         <is>
-          <t>2019年10月</t>
+          <t>2019-01</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>99.85810477</v>
+        <v>101.04930516</v>
       </c>
       <c r="C230" t="n">
-        <v>119.69765511</v>
+        <v>100.73223759</v>
       </c>
       <c r="D230" t="n">
-        <v>100.58626963</v>
+        <v>100.48312606</v>
       </c>
       <c r="E230" t="inlineStr"/>
       <c r="F230" t="n">
-        <v>104.41700252</v>
+        <v>100.51899898</v>
       </c>
       <c r="G230" t="inlineStr"/>
       <c r="H230" t="n">
-        <v>116.09982841</v>
+        <v>105.17626415</v>
       </c>
       <c r="I230" t="n">
-        <v>103.46498848</v>
+        <v>103.96936714</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="inlineStr">
         <is>
-          <t>2019年11月</t>
+          <t>2019-02</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>100.06535244</v>
+        <v>99.09716586</v>
       </c>
       <c r="C231" t="n">
-        <v>124.56650263</v>
+        <v>100.1788744</v>
       </c>
       <c r="D231" t="n">
-        <v>100.59657933</v>
+        <v>100.4892737</v>
       </c>
       <c r="E231" t="inlineStr"/>
       <c r="F231" t="n">
-        <v>104.91457044</v>
+        <v>98.17506331</v>
       </c>
       <c r="G231" t="inlineStr"/>
       <c r="H231" t="n">
-        <v>113.92461694</v>
+        <v>104.90276592</v>
       </c>
       <c r="I231" t="n">
-        <v>103.50805477</v>
+        <v>102.79427052</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="inlineStr">
         <is>
-          <t>2019年12月</t>
+          <t>2019-03</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>100.14142931</v>
+        <v>98.31428493</v>
       </c>
       <c r="C232" t="n">
-        <v>127.93892229</v>
+        <v>101.67302333</v>
       </c>
       <c r="D232" t="n">
-        <v>100.59870294</v>
+        <v>100.4779134</v>
       </c>
       <c r="E232" t="inlineStr"/>
       <c r="F232" t="n">
-        <v>104.99737527</v>
+        <v>98.28817567999999</v>
       </c>
       <c r="G232" t="inlineStr"/>
       <c r="H232" t="n">
-        <v>111.99770023</v>
+        <v>105.79406851</v>
       </c>
       <c r="I232" t="n">
-        <v>104.10564085</v>
+        <v>107.06820187</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="inlineStr">
         <is>
-          <t>2019年1月</t>
+          <t>2019-04</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>101.04930516</v>
+        <v>98.36762727</v>
       </c>
       <c r="C233" t="n">
-        <v>100.73223759</v>
+        <v>103.5337957</v>
       </c>
       <c r="D233" t="n">
-        <v>100.48312606</v>
+        <v>100.48387273</v>
       </c>
       <c r="E233" t="inlineStr"/>
       <c r="F233" t="n">
-        <v>100.51899898</v>
+        <v>99.59197986</v>
       </c>
       <c r="G233" t="inlineStr"/>
       <c r="H233" t="n">
-        <v>105.17626415</v>
+        <v>107.16579301</v>
       </c>
       <c r="I233" t="n">
-        <v>103.96936714</v>
+        <v>109.42531902</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="inlineStr">
         <is>
-          <t>2019年2月</t>
+          <t>2019-05</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>99.09716586</v>
+        <v>98.59474944999999</v>
       </c>
       <c r="C234" t="n">
-        <v>100.1788744</v>
+        <v>105.07365914</v>
       </c>
       <c r="D234" t="n">
-        <v>100.4892737</v>
+        <v>100.50134477</v>
       </c>
       <c r="E234" t="inlineStr"/>
       <c r="F234" t="n">
-        <v>98.17506331</v>
+        <v>101.33774891</v>
       </c>
       <c r="G234" t="inlineStr"/>
       <c r="H234" t="n">
-        <v>104.90276592</v>
+        <v>110.85280843</v>
       </c>
       <c r="I234" t="n">
-        <v>102.79427052</v>
+        <v>110.10809801</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="inlineStr">
         <is>
-          <t>2019年3月</t>
+          <t>2019-06</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>98.31428493</v>
+        <v>98.7144778</v>
       </c>
       <c r="C235" t="n">
-        <v>101.67302333</v>
+        <v>106.44015773</v>
       </c>
       <c r="D235" t="n">
-        <v>100.4779134</v>
+        <v>100.52192403</v>
       </c>
       <c r="E235" t="inlineStr"/>
       <c r="F235" t="n">
-        <v>98.28817567999999</v>
+        <v>102.12196338</v>
       </c>
       <c r="G235" t="inlineStr"/>
       <c r="H235" t="n">
-        <v>105.79406851</v>
+        <v>115.68873557</v>
       </c>
       <c r="I235" t="n">
-        <v>107.06820187</v>
+        <v>109.2052006</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="inlineStr">
         <is>
-          <t>2019年4月</t>
+          <t>2019-07</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>98.36762727</v>
+        <v>98.90937292</v>
       </c>
       <c r="C236" t="n">
-        <v>103.5337957</v>
+        <v>107.94669812</v>
       </c>
       <c r="D236" t="n">
-        <v>100.48387273</v>
+        <v>100.54100339</v>
       </c>
       <c r="E236" t="inlineStr"/>
       <c r="F236" t="n">
-        <v>99.59197986</v>
+        <v>103.21974101</v>
       </c>
       <c r="G236" t="inlineStr"/>
       <c r="H236" t="n">
-        <v>107.16579301</v>
+        <v>118.62282735</v>
       </c>
       <c r="I236" t="n">
-        <v>109.42531902</v>
+        <v>108.63985031</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="inlineStr">
         <is>
-          <t>2019年5月</t>
+          <t>2019-08</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>98.59474944999999</v>
+        <v>99.19658387</v>
       </c>
       <c r="C237" t="n">
-        <v>105.07365914</v>
+        <v>110.66169997</v>
       </c>
       <c r="D237" t="n">
-        <v>100.50134477</v>
+        <v>100.57647906</v>
       </c>
       <c r="E237" t="inlineStr"/>
       <c r="F237" t="n">
-        <v>101.33774891</v>
+        <v>103.23323105</v>
       </c>
       <c r="G237" t="inlineStr"/>
       <c r="H237" t="n">
-        <v>110.85280843</v>
+        <v>119.21865389</v>
       </c>
       <c r="I237" t="n">
-        <v>110.10809801</v>
+        <v>107.45055822</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="inlineStr">
         <is>
-          <t>2019年6月</t>
+          <t>2019-09</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>98.7144778</v>
+        <v>99.57792191</v>
       </c>
       <c r="C238" t="n">
-        <v>106.44015773</v>
+        <v>114.59002218</v>
       </c>
       <c r="D238" t="n">
-        <v>100.52192403</v>
+        <v>100.58453585</v>
       </c>
       <c r="E238" t="inlineStr"/>
       <c r="F238" t="n">
-        <v>102.12196338</v>
+        <v>103.77638562</v>
       </c>
       <c r="G238" t="inlineStr"/>
       <c r="H238" t="n">
-        <v>115.68873557</v>
+        <v>117.95780492</v>
       </c>
       <c r="I238" t="n">
-        <v>109.2052006</v>
+        <v>105.07229847</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="inlineStr">
         <is>
-          <t>2019年7月</t>
+          <t>2019-10</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>98.90937292</v>
+        <v>99.85810477</v>
       </c>
       <c r="C239" t="n">
-        <v>107.94669812</v>
+        <v>119.69765511</v>
       </c>
       <c r="D239" t="n">
-        <v>100.54100339</v>
+        <v>100.58626963</v>
       </c>
       <c r="E239" t="inlineStr"/>
       <c r="F239" t="n">
-        <v>103.21974101</v>
+        <v>104.41700252</v>
       </c>
       <c r="G239" t="inlineStr"/>
       <c r="H239" t="n">
-        <v>118.62282735</v>
+        <v>116.09982841</v>
       </c>
       <c r="I239" t="n">
-        <v>108.63985031</v>
+        <v>103.46498848</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="inlineStr">
         <is>
-          <t>2019年8月</t>
+          <t>2019-11</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>99.19658387</v>
+        <v>100.06535244</v>
       </c>
       <c r="C240" t="n">
-        <v>110.66169997</v>
+        <v>124.56650263</v>
       </c>
       <c r="D240" t="n">
-        <v>100.57647906</v>
+        <v>100.59657933</v>
       </c>
       <c r="E240" t="inlineStr"/>
       <c r="F240" t="n">
-        <v>103.23323105</v>
+        <v>104.91457044</v>
       </c>
       <c r="G240" t="inlineStr"/>
       <c r="H240" t="n">
-        <v>119.21865389</v>
+        <v>113.92461694</v>
       </c>
       <c r="I240" t="n">
-        <v>107.45055822</v>
+        <v>103.50805477</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="inlineStr">
         <is>
-          <t>2019年9月</t>
+          <t>2019-12</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>99.57792191</v>
+        <v>100.14142931</v>
       </c>
       <c r="C241" t="n">
-        <v>114.59002218</v>
+        <v>127.93892229</v>
       </c>
       <c r="D241" t="n">
-        <v>100.58453585</v>
+        <v>100.59870294</v>
       </c>
       <c r="E241" t="inlineStr"/>
       <c r="F241" t="n">
-        <v>103.77638562</v>
+        <v>104.99737527</v>
       </c>
       <c r="G241" t="inlineStr"/>
       <c r="H241" t="n">
-        <v>117.95780492</v>
+        <v>111.99770023</v>
       </c>
       <c r="I241" t="n">
-        <v>105.07229847</v>
+        <v>104.10564085</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="inlineStr">
         <is>
-          <t>2020年10月</t>
+          <t>2020-01</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>103.3</v>
+        <v>103.66469673</v>
       </c>
       <c r="C242" t="n">
-        <v>149.4</v>
+        <v>173.43241835</v>
       </c>
       <c r="D242" t="n">
-        <v>101.2</v>
+        <v>100.39255926</v>
       </c>
       <c r="E242" t="inlineStr"/>
       <c r="F242" t="n">
-        <v>91.90000000000001</v>
+        <v>102.20247898</v>
       </c>
       <c r="G242" t="inlineStr"/>
       <c r="H242" t="n">
-        <v>86.40000000000001</v>
+        <v>94.96026007</v>
       </c>
       <c r="I242" t="n">
-        <v>107.1</v>
+        <v>117.52175545</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="inlineStr">
         <is>
-          <t>2020年11月</t>
+          <t>2020-02</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>103</v>
+        <v>103.14953084</v>
       </c>
       <c r="C243" t="n">
-        <v>142.2</v>
+        <v>178.90318384</v>
       </c>
       <c r="D243" t="n">
-        <v>101.2</v>
+        <v>100.5591761</v>
       </c>
       <c r="E243" t="inlineStr"/>
       <c r="F243" t="n">
-        <v>91</v>
+        <v>101.59212477</v>
       </c>
       <c r="G243" t="inlineStr"/>
       <c r="H243" t="n">
-        <v>87.8</v>
+        <v>94.68656425</v>
       </c>
       <c r="I243" t="n">
-        <v>107.2</v>
+        <v>113.92745316</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="inlineStr">
         <is>
-          <t>2020年12月</t>
+          <t>2020-03</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>102.9</v>
+        <v>102.95101104</v>
       </c>
       <c r="C244" t="n">
-        <v>137.6</v>
+        <v>177.67590792</v>
       </c>
       <c r="D244" t="n">
-        <v>101.2</v>
+        <v>100.61039703</v>
       </c>
       <c r="E244" t="inlineStr"/>
       <c r="F244" t="n">
-        <v>90.90000000000001</v>
+        <v>101.57641596</v>
       </c>
       <c r="G244" t="inlineStr"/>
       <c r="H244" t="n">
-        <v>89.2</v>
+        <v>94.38576933</v>
       </c>
       <c r="I244" t="n">
-        <v>107.1</v>
+        <v>109.05115454</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="inlineStr">
         <is>
-          <t>2020年1月</t>
+          <t>2020-04</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>103.66469673</v>
+        <v>102.75687831</v>
       </c>
       <c r="C245" t="n">
-        <v>173.43241835</v>
+        <v>174.43301586</v>
       </c>
       <c r="D245" t="n">
-        <v>100.39255926</v>
+        <v>100.75748691</v>
       </c>
       <c r="E245" t="inlineStr"/>
       <c r="F245" t="n">
-        <v>102.20247898</v>
+        <v>100.51242028</v>
       </c>
       <c r="G245" t="inlineStr"/>
       <c r="H245" t="n">
-        <v>94.96026007</v>
+        <v>93.15923306000001</v>
       </c>
       <c r="I245" t="n">
-        <v>117.52175545</v>
+        <v>105.95353224</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="inlineStr">
         <is>
-          <t>2020年2月</t>
+          <t>2020-05</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>103.14953084</v>
+        <v>102.91618605</v>
       </c>
       <c r="C246" t="n">
-        <v>178.90318384</v>
+        <v>170.7139408</v>
       </c>
       <c r="D246" t="n">
-        <v>100.5591761</v>
+        <v>100.90638489</v>
       </c>
       <c r="E246" t="inlineStr"/>
       <c r="F246" t="n">
-        <v>101.59212477</v>
+        <v>97.95706337</v>
       </c>
       <c r="G246" t="inlineStr"/>
       <c r="H246" t="n">
-        <v>94.68656425</v>
+        <v>90.40826134</v>
       </c>
       <c r="I246" t="n">
-        <v>113.92745316</v>
+        <v>103.31549585</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="inlineStr">
         <is>
-          <t>2020年3月</t>
+          <t>2020-06</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>102.95101104</v>
+        <v>103.20027718</v>
       </c>
       <c r="C247" t="n">
-        <v>177.67590792</v>
+        <v>168.12804271</v>
       </c>
       <c r="D247" t="n">
-        <v>100.61039703</v>
+        <v>101.02494885</v>
       </c>
       <c r="E247" t="inlineStr"/>
       <c r="F247" t="n">
-        <v>101.57641596</v>
+        <v>96.10592034</v>
       </c>
       <c r="G247" t="inlineStr"/>
       <c r="H247" t="n">
-        <v>94.38576933</v>
+        <v>86.73656875</v>
       </c>
       <c r="I247" t="n">
-        <v>109.05115454</v>
+        <v>103.51275238</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="inlineStr">
         <is>
-          <t>2020年4月</t>
+          <t>2020-07</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>102.75687831</v>
+        <v>103.41306636</v>
       </c>
       <c r="C248" t="n">
-        <v>174.43301586</v>
+        <v>166.77475067</v>
       </c>
       <c r="D248" t="n">
-        <v>100.75748691</v>
+        <v>101.11066349</v>
       </c>
       <c r="E248" t="inlineStr"/>
       <c r="F248" t="n">
-        <v>100.51242028</v>
+        <v>94.62270776</v>
       </c>
       <c r="G248" t="inlineStr"/>
       <c r="H248" t="n">
-        <v>93.15923306000001</v>
+        <v>84.59170505</v>
       </c>
       <c r="I248" t="n">
-        <v>105.95353224</v>
+        <v>104.08998547</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="inlineStr">
         <is>
-          <t>2020年5月</t>
+          <t>2020-08</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>102.91618605</v>
+        <v>103.41227146</v>
       </c>
       <c r="C249" t="n">
-        <v>170.7139408</v>
+        <v>163.00090053</v>
       </c>
       <c r="D249" t="n">
-        <v>100.90638489</v>
+        <v>101.15878782</v>
       </c>
       <c r="E249" t="inlineStr"/>
       <c r="F249" t="n">
-        <v>97.95706337</v>
+        <v>93.93757089</v>
       </c>
       <c r="G249" t="inlineStr"/>
       <c r="H249" t="n">
-        <v>90.40826134</v>
+        <v>84.09700807999999</v>
       </c>
       <c r="I249" t="n">
-        <v>103.31549585</v>
+        <v>104.93367487</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="inlineStr">
         <is>
-          <t>2020年6月</t>
+          <t>2020-09</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>103.20027718</v>
+        <v>103.32650334</v>
       </c>
       <c r="C250" t="n">
-        <v>168.12804271</v>
+        <v>157.14100396</v>
       </c>
       <c r="D250" t="n">
-        <v>101.02494885</v>
+        <v>101.19015792</v>
       </c>
       <c r="E250" t="inlineStr"/>
       <c r="F250" t="n">
-        <v>96.10592034</v>
+        <v>92.79589088</v>
       </c>
       <c r="G250" t="inlineStr"/>
       <c r="H250" t="n">
-        <v>86.73656875</v>
+        <v>85.04321566</v>
       </c>
       <c r="I250" t="n">
-        <v>103.51275238</v>
+        <v>106.18429133</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="inlineStr">
         <is>
-          <t>2020年7月</t>
+          <t>2020-10</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>103.41306636</v>
+        <v>103.3</v>
       </c>
       <c r="C251" t="n">
-        <v>166.77475067</v>
+        <v>149.4</v>
       </c>
       <c r="D251" t="n">
-        <v>101.11066349</v>
+        <v>101.2</v>
       </c>
       <c r="E251" t="inlineStr"/>
       <c r="F251" t="n">
-        <v>94.62270776</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="G251" t="inlineStr"/>
       <c r="H251" t="n">
-        <v>84.59170505</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="I251" t="n">
-        <v>104.08998547</v>
+        <v>107.1</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="inlineStr">
         <is>
-          <t>2020年8月</t>
+          <t>2020-11</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>103.41227146</v>
+        <v>103</v>
       </c>
       <c r="C252" t="n">
-        <v>163.00090053</v>
+        <v>142.2</v>
       </c>
       <c r="D252" t="n">
-        <v>101.15878782</v>
+        <v>101.2</v>
       </c>
       <c r="E252" t="inlineStr"/>
       <c r="F252" t="n">
-        <v>93.93757089</v>
+        <v>91</v>
       </c>
       <c r="G252" t="inlineStr"/>
       <c r="H252" t="n">
-        <v>84.09700807999999</v>
+        <v>87.8</v>
       </c>
       <c r="I252" t="n">
-        <v>104.93367487</v>
+        <v>107.2</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="inlineStr">
         <is>
-          <t>2020年9月</t>
+          <t>2020-12</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>103.32650334</v>
+        <v>102.9</v>
       </c>
       <c r="C253" t="n">
-        <v>157.14100396</v>
+        <v>137.6</v>
       </c>
       <c r="D253" t="n">
-        <v>101.19015792</v>
+        <v>101.2</v>
       </c>
       <c r="E253" t="inlineStr"/>
       <c r="F253" t="n">
-        <v>92.79589088</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="G253" t="inlineStr"/>
       <c r="H253" t="n">
-        <v>85.04321566</v>
+        <v>89.2</v>
       </c>
       <c r="I253" t="n">
-        <v>106.18429133</v>
+        <v>107.1</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="inlineStr">
         <is>
-          <t>2021年10月</t>
+          <t>2021-01</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>109.3</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C254" t="n">
-        <v>84.40000000000001</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="D254" t="n">
-        <v>101</v>
+        <v>101.6</v>
       </c>
       <c r="E254" t="inlineStr"/>
       <c r="F254" t="n">
-        <v>109.3</v>
+        <v>100.7</v>
       </c>
       <c r="G254" t="inlineStr"/>
       <c r="H254" t="n">
-        <v>102.5</v>
+        <v>101.2</v>
       </c>
       <c r="I254" t="n">
-        <v>102.7</v>
+        <v>110.5</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="inlineStr">
         <is>
-          <t>2021年11月</t>
+          <t>2021-02</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>109.2</v>
+        <v>102.9</v>
       </c>
       <c r="C255" t="n">
-        <v>84.2</v>
+        <v>96.2</v>
       </c>
       <c r="D255" t="n">
-        <v>101</v>
+        <v>101.5</v>
       </c>
       <c r="E255" t="inlineStr"/>
       <c r="F255" t="n">
-        <v>110</v>
+        <v>101.4</v>
       </c>
       <c r="G255" t="inlineStr"/>
       <c r="H255" t="n">
-        <v>102.7</v>
+        <v>102</v>
       </c>
       <c r="I255" t="n">
-        <v>105.1</v>
+        <v>106.7</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="inlineStr">
         <is>
-          <t>2021年12月</t>
+          <t>2021-03</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>109</v>
+        <v>104.6</v>
       </c>
       <c r="C256" t="n">
-        <v>83.7</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="D256" t="n">
-        <v>101.1</v>
+        <v>101.4</v>
       </c>
       <c r="E256" t="inlineStr"/>
       <c r="F256" t="n">
-        <v>110.2</v>
+        <v>101.9</v>
       </c>
       <c r="G256" t="inlineStr"/>
       <c r="H256" t="n">
-        <v>102.9</v>
+        <v>102.7</v>
       </c>
       <c r="I256" t="n">
-        <v>105.6</v>
+        <v>104.6</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="inlineStr">
         <is>
-          <t>2021年1月</t>
+          <t>2021-04</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>99.90000000000001</v>
+        <v>106.2</v>
       </c>
       <c r="C257" t="n">
-        <v>99.59999999999999</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="D257" t="n">
-        <v>101.6</v>
+        <v>101.4</v>
       </c>
       <c r="E257" t="inlineStr"/>
       <c r="F257" t="n">
-        <v>100.7</v>
+        <v>102.9</v>
       </c>
       <c r="G257" t="inlineStr"/>
       <c r="H257" t="n">
-        <v>101.2</v>
+        <v>102.7</v>
       </c>
       <c r="I257" t="n">
-        <v>110.5</v>
+        <v>103.2</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="inlineStr">
         <is>
-          <t>2021年2月</t>
+          <t>2021-05</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>102.9</v>
+        <v>107.6</v>
       </c>
       <c r="C258" t="n">
-        <v>96.2</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="D258" t="n">
-        <v>101.5</v>
+        <v>101.3</v>
       </c>
       <c r="E258" t="inlineStr"/>
       <c r="F258" t="n">
-        <v>101.4</v>
+        <v>104.9</v>
       </c>
       <c r="G258" t="inlineStr"/>
       <c r="H258" t="n">
-        <v>102</v>
+        <v>102.5</v>
       </c>
       <c r="I258" t="n">
-        <v>106.7</v>
+        <v>103.6</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="inlineStr">
         <is>
-          <t>2021年3月</t>
+          <t>2021-06</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>104.6</v>
+        <v>108.6</v>
       </c>
       <c r="C259" t="n">
-        <v>94.59999999999999</v>
+        <v>91.2</v>
       </c>
       <c r="D259" t="n">
-        <v>101.4</v>
+        <v>101.2</v>
       </c>
       <c r="E259" t="inlineStr"/>
       <c r="F259" t="n">
-        <v>101.9</v>
+        <v>106.8</v>
       </c>
       <c r="G259" t="inlineStr"/>
       <c r="H259" t="n">
-        <v>102.7</v>
+        <v>102.6</v>
       </c>
       <c r="I259" t="n">
-        <v>104.6</v>
+        <v>103.1</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="inlineStr">
         <is>
-          <t>2021年4月</t>
+          <t>2021-07</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>106.2</v>
+        <v>109.2</v>
       </c>
       <c r="C260" t="n">
-        <v>93.59999999999999</v>
+        <v>89</v>
       </c>
       <c r="D260" t="n">
-        <v>101.4</v>
+        <v>101.1</v>
       </c>
       <c r="E260" t="inlineStr"/>
       <c r="F260" t="n">
-        <v>102.9</v>
+        <v>107.8</v>
       </c>
       <c r="G260" t="inlineStr"/>
       <c r="H260" t="n">
-        <v>102.7</v>
+        <v>103</v>
       </c>
       <c r="I260" t="n">
-        <v>103.2</v>
+        <v>102.2</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="inlineStr">
         <is>
-          <t>2021年5月</t>
+          <t>2021-08</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>107.6</v>
+        <v>109.4</v>
       </c>
       <c r="C261" t="n">
-        <v>92.90000000000001</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="D261" t="n">
-        <v>101.3</v>
+        <v>101.1</v>
       </c>
       <c r="E261" t="inlineStr"/>
       <c r="F261" t="n">
-        <v>104.9</v>
+        <v>108.5</v>
       </c>
       <c r="G261" t="inlineStr"/>
       <c r="H261" t="n">
-        <v>102.5</v>
+        <v>103.2</v>
       </c>
       <c r="I261" t="n">
-        <v>103.6</v>
+        <v>101.7</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="inlineStr">
         <is>
-          <t>2021年6月</t>
+          <t>2021-09</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>108.6</v>
+        <v>109.4</v>
       </c>
       <c r="C262" t="n">
-        <v>91.2</v>
+        <v>85.5</v>
       </c>
       <c r="D262" t="n">
-        <v>101.2</v>
+        <v>101</v>
       </c>
       <c r="E262" t="inlineStr"/>
       <c r="F262" t="n">
-        <v>106.8</v>
+        <v>108.9</v>
       </c>
       <c r="G262" t="inlineStr"/>
       <c r="H262" t="n">
-        <v>102.6</v>
+        <v>102.8</v>
       </c>
       <c r="I262" t="n">
-        <v>103.1</v>
+        <v>101.2</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="inlineStr">
         <is>
-          <t>2021年7月</t>
+          <t>2021-10</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>109.2</v>
+        <v>109.3</v>
       </c>
       <c r="C263" t="n">
-        <v>89</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="D263" t="n">
-        <v>101.1</v>
+        <v>101</v>
       </c>
       <c r="E263" t="inlineStr"/>
       <c r="F263" t="n">
-        <v>107.8</v>
+        <v>109.3</v>
       </c>
       <c r="G263" t="inlineStr"/>
       <c r="H263" t="n">
-        <v>103</v>
+        <v>102.5</v>
       </c>
       <c r="I263" t="n">
-        <v>102.2</v>
+        <v>102.7</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="inlineStr">
         <is>
-          <t>2021年8月</t>
+          <t>2021-11</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>109.4</v>
+        <v>109.2</v>
       </c>
       <c r="C264" t="n">
-        <v>87.09999999999999</v>
+        <v>84.2</v>
       </c>
       <c r="D264" t="n">
-        <v>101.1</v>
+        <v>101</v>
       </c>
       <c r="E264" t="inlineStr"/>
       <c r="F264" t="n">
-        <v>108.5</v>
+        <v>110</v>
       </c>
       <c r="G264" t="inlineStr"/>
       <c r="H264" t="n">
-        <v>103.2</v>
+        <v>102.7</v>
       </c>
       <c r="I264" t="n">
-        <v>101.7</v>
+        <v>105.1</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="inlineStr">
         <is>
-          <t>2021年9月</t>
+          <t>2021-12</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>109.4</v>
+        <v>109</v>
       </c>
       <c r="C265" t="n">
-        <v>85.5</v>
+        <v>83.7</v>
       </c>
       <c r="D265" t="n">
-        <v>101</v>
+        <v>101.1</v>
       </c>
       <c r="E265" t="inlineStr"/>
       <c r="F265" t="n">
-        <v>108.9</v>
+        <v>110.2</v>
       </c>
       <c r="G265" t="inlineStr"/>
       <c r="H265" t="n">
-        <v>102.8</v>
+        <v>102.9</v>
       </c>
       <c r="I265" t="n">
-        <v>101.2</v>
+        <v>105.6</v>
       </c>
     </row>
   </sheetData>
